--- a/ofc/estimates/school lilaami/School lilaam.xlsx
+++ b/ofc/estimates/school lilaami/School lilaam.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\school lilaami\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\school lilaami\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="new" sheetId="18" r:id="rId1"/>
+    <sheet name="quqntity cqlculqtion" sheetId="18" r:id="rId1"/>
+    <sheet name="demolition cost" sheetId="20" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="adopted_rate_aggregate_10_20_mm">[1]District_Rate!$L$6</definedName>
@@ -40,13 +41,15 @@
     <definedName name="description_784">[2]Abstract!$B$300</definedName>
     <definedName name="excavator">[1]Equipment_Rate!$J$19</definedName>
     <definedName name="generator">[1]Equipment_Rate!$J$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">new!$A$1:$K$170</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">new!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'demolition cost'!$A$1:$K$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'quqntity cqlculqtion'!$A$1:$K$165</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'demolition cost'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'quqntity cqlculqtion'!$1:$8</definedName>
     <definedName name="skilled">[1]District_Rate!$D$148</definedName>
     <definedName name="skilled_blacksmith">[1]District_Rate!$D$149</definedName>
     <definedName name="unskilled">[1]District_Rate!$D$156</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,8 +92,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="C58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+urinals</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="97">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -373,15 +410,24 @@
   <si>
     <t>-55*55*5mm equal angle at Long wall vertical post</t>
   </si>
+  <si>
+    <t xml:space="preserve">Brick masonary works in c/s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jastapata </t>
+  </si>
+  <si>
+    <t>Ms steel works</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -606,20 +652,20 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,7 +673,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,7 +690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +699,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +711,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,7 +754,7 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,48 +779,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -782,9 +796,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,6 +814,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1468,141 +1520,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE170"/>
+  <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I159" sqref="I159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="17" t="s">
         <v>27</v>
@@ -1646,24 +1698,24 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="3"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>28</v>
+      <c r="B10" s="77" t="s">
+        <v>94</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="72"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26"/>
       <c r="J10" s="27"/>
@@ -1673,7 +1725,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="38" t="s">
         <v>29</v>
@@ -1682,7 +1734,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
       <c r="J11" s="7"/>
@@ -1692,7 +1744,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="39" t="s">
         <v>30</v>
@@ -1711,7 +1763,7 @@
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="55">
         <f>PRODUCT(C12:F12)</f>
         <v>1.5044597003184688</v>
       </c>
@@ -1724,7 +1776,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="39"/>
       <c r="C13" s="22">
@@ -1741,7 +1793,7 @@
         <f>3.917/3.281</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="55">
         <f t="shared" ref="G13:G19" si="1">PRODUCT(C13:F13)</f>
         <v>1.0248641123734679</v>
       </c>
@@ -1754,7 +1806,7 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="39"/>
       <c r="C14" s="22">
@@ -1771,7 +1823,7 @@
         <f>F13+F12</f>
         <v>1.955806156659555</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="55">
         <f t="shared" si="1"/>
         <v>0.83948851277770542</v>
       </c>
@@ -1784,7 +1836,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="39" t="s">
         <v>31</v>
@@ -1803,7 +1855,7 @@
         <f>2.5/3.281</f>
         <v>0.76196281621456874</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="55">
         <f t="shared" si="1"/>
         <v>4.8521309087882436</v>
       </c>
@@ -1816,7 +1868,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="39"/>
       <c r="C16" s="22">
@@ -1833,7 +1885,7 @@
         <f>3.917/3.281</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="55">
         <f t="shared" si="1"/>
         <v>3.3053559599519216</v>
       </c>
@@ -1846,7 +1898,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="39" t="s">
         <v>32</v>
@@ -1866,7 +1918,7 @@
         <f>F14</f>
         <v>1.955806156659555</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="55">
         <f t="shared" si="1"/>
         <v>0.53567299243304567</v>
       </c>
@@ -1879,7 +1931,7 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="39"/>
       <c r="C18" s="22">
@@ -1897,7 +1949,7 @@
         <f>F14</f>
         <v>1.955806156659555</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="55">
         <f t="shared" si="1"/>
         <v>0.58511973019609598</v>
       </c>
@@ -1910,7 +1962,7 @@
       <c r="P18" s="34"/>
       <c r="Q18" s="34"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="39" t="s">
         <v>33</v>
@@ -1929,7 +1981,7 @@
         <f>3.917/3.281</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="55">
         <f t="shared" si="1"/>
         <v>-1.4008829200588837</v>
       </c>
@@ -1941,14 +1993,14 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="39"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="67"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26"/>
       <c r="J20" s="7"/>
@@ -1957,7 +2009,7 @@
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="39" t="s">
         <v>34</v>
@@ -1976,7 +2028,7 @@
         <f>(6.5/3.281)-F22</f>
         <v>0.78725998171289246</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="55">
         <f t="shared" ref="G21" si="2">PRODUCT(C21:F21)</f>
         <v>-0.30353059337604665</v>
       </c>
@@ -1989,7 +2041,7 @@
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="39"/>
       <c r="C22" s="22">
@@ -2006,7 +2058,7 @@
         <f>F13</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="55">
         <f t="shared" ref="G22" si="3">PRODUCT(C22:F22)</f>
         <v>-0.20012613143698338</v>
       </c>
@@ -2019,7 +2071,7 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -2028,7 +2080,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="67"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26"/>
       <c r="J23" s="7"/>
@@ -2038,7 +2090,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="39" t="s">
         <v>30</v>
@@ -2057,7 +2109,7 @@
         <f>3.75/3.281</f>
         <v>1.1429442243218531</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="55">
         <f>PRODUCT(C24:F24)</f>
         <v>2.1900288352182602</v>
       </c>
@@ -2070,7 +2122,7 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="39"/>
       <c r="C25" s="22">
@@ -2087,7 +2139,7 @@
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="55">
         <f t="shared" ref="G25:G33" si="5">PRODUCT(C25:F25)</f>
         <v>0.69827006340292364</v>
       </c>
@@ -2100,7 +2152,7 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="39"/>
       <c r="C26" s="22">
@@ -2117,7 +2169,7 @@
         <f>F25+F24</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="55">
         <f t="shared" si="5"/>
         <v>0.82522825674890976</v>
       </c>
@@ -2129,7 +2181,7 @@
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="39" t="s">
         <v>31</v>
@@ -2148,7 +2200,7 @@
         <f>4/3.281</f>
         <v>1.2191405059433098</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="55">
         <f t="shared" si="5"/>
         <v>7.6774342238676008</v>
       </c>
@@ -2160,7 +2212,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="39"/>
       <c r="C28" s="22">
@@ -2177,7 +2229,7 @@
         <f>2.75/3.281</f>
         <v>0.8381590978360256</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="55">
         <f t="shared" si="5"/>
         <v>2.2948852299604243</v>
       </c>
@@ -2189,7 +2241,7 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="39" t="s">
         <v>32</v>
@@ -2209,7 +2261,7 @@
         <f>F26</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="55">
         <f t="shared" si="5"/>
         <v>0.54260159744659442</v>
       </c>
@@ -2221,7 +2273,7 @@
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="39"/>
       <c r="C30" s="22">
@@ -2239,7 +2291,7 @@
         <f>F26</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="55">
         <f t="shared" si="5"/>
         <v>0.59268789874935701</v>
       </c>
@@ -2251,7 +2303,7 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="39" t="s">
         <v>33</v>
@@ -2270,7 +2322,7 @@
         <f>3.917/3.281</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="55">
         <f t="shared" si="5"/>
         <v>-1.4008829200588837</v>
       </c>
@@ -2282,7 +2334,7 @@
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="39" t="s">
         <v>34</v>
@@ -2301,7 +2353,7 @@
         <f>(6.25/3.281)-F33</f>
         <v>0.71106370009143549</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="55">
         <f t="shared" si="5"/>
         <v>-0.27415287431138857</v>
       </c>
@@ -2313,7 +2365,7 @@
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="35"/>
       <c r="C33" s="22">
@@ -2330,7 +2382,7 @@
         <f>F31</f>
         <v>1.1938433404449862</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="55">
         <f t="shared" si="5"/>
         <v>-0.20012613143698338</v>
       </c>
@@ -2339,7 +2391,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="38" t="s">
         <v>38</v>
@@ -2348,7 +2400,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
-      <c r="G34" s="67"/>
+      <c r="G34" s="55"/>
       <c r="H34" s="25"/>
       <c r="I34" s="26"/>
       <c r="J34" s="7"/>
@@ -2358,7 +2410,7 @@
       <c r="P34" s="34"/>
       <c r="Q34" s="34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="39" t="s">
         <v>30</v>
@@ -2376,7 +2428,7 @@
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="55">
         <f>PRODUCT(C35:F35)</f>
         <v>1.9795001523925628</v>
       </c>
@@ -2389,7 +2441,7 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="39"/>
       <c r="C36" s="22">
@@ -2405,7 +2457,7 @@
         <f>4.75/3.281</f>
         <v>1.4477293508076805</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="55">
         <f t="shared" ref="G36:G61" si="6">PRODUCT(C36:F36)</f>
         <v>1.1680280402316365</v>
       </c>
@@ -2418,7 +2470,7 @@
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="39"/>
       <c r="C37" s="22">
@@ -2434,7 +2486,7 @@
         <f>F36+F35</f>
         <v>2.5144772935080768</v>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="55">
         <f t="shared" si="6"/>
         <v>1.0090597378847912</v>
       </c>
@@ -2446,7 +2498,7 @@
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="39" t="s">
         <v>31</v>
@@ -2464,7 +2516,7 @@
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="55">
         <f t="shared" si="6"/>
         <v>6.9419902468759513</v>
       </c>
@@ -2476,7 +2528,7 @@
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="39"/>
       <c r="C39" s="22">
@@ -2492,7 +2544,7 @@
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="55">
         <f t="shared" si="6"/>
         <v>4.9585644620542517</v>
       </c>
@@ -2510,7 +2562,7 @@
       </c>
       <c r="P39" s="34"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="39" t="s">
         <v>39</v>
@@ -2528,7 +2580,7 @@
       <c r="F40" s="24">
         <v>0.5</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="55">
         <f t="shared" si="6"/>
         <v>-0.70230000000000015</v>
       </c>
@@ -2543,7 +2595,7 @@
       </c>
       <c r="P40" s="34"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="39"/>
       <c r="C41" s="22">
@@ -2559,7 +2611,7 @@
       <c r="F41" s="24">
         <v>0.5</v>
       </c>
-      <c r="G41" s="67">
+      <c r="G41" s="55">
         <f t="shared" si="6"/>
         <v>-0.23750000000000002</v>
       </c>
@@ -2571,7 +2623,7 @@
       <c r="O41" s="34"/>
       <c r="P41" s="34"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="39" t="s">
         <v>32</v>
@@ -2591,7 +2643,7 @@
         <f>F39+F38</f>
         <v>2.8192624199939038</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="55">
         <f t="shared" si="6"/>
         <v>0.77216381175092275</v>
       </c>
@@ -2603,7 +2655,7 @@
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="39"/>
       <c r="C43" s="22">
@@ -2621,7 +2673,7 @@
         <f>F38+F39</f>
         <v>2.8192624199939038</v>
       </c>
-      <c r="G43" s="67">
+      <c r="G43" s="55">
         <f t="shared" si="6"/>
         <v>0.84344047129716171</v>
       </c>
@@ -2633,7 +2685,7 @@
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="39" t="s">
         <v>33</v>
@@ -2650,7 +2702,7 @@
       <c r="F44" s="24">
         <v>1.2</v>
       </c>
-      <c r="G44" s="67">
+      <c r="G44" s="55">
         <f t="shared" si="6"/>
         <v>-1.0055999999999998</v>
       </c>
@@ -2662,7 +2714,7 @@
       <c r="O44" s="34"/>
       <c r="P44" s="34"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="39"/>
       <c r="C45" s="22">
@@ -2677,7 +2729,7 @@
       <c r="F45" s="24">
         <v>1.2</v>
       </c>
-      <c r="G45" s="67">
+      <c r="G45" s="55">
         <f t="shared" ref="G45" si="7">PRODUCT(C45:F45)</f>
         <v>-0.57000000000000006</v>
       </c>
@@ -2689,7 +2741,7 @@
       <c r="O45" s="34"/>
       <c r="P45" s="34"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="39" t="s">
         <v>34</v>
@@ -2708,7 +2760,7 @@
         <f>3.5/3.281</f>
         <v>1.0667479427003961</v>
       </c>
-      <c r="G46" s="67">
+      <c r="G46" s="55">
         <f t="shared" si="6"/>
         <v>-0.41128806690521219</v>
       </c>
@@ -2723,7 +2775,7 @@
       <c r="O46" s="34"/>
       <c r="P46" s="34"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="35"/>
       <c r="C47" s="22">
@@ -2740,7 +2792,7 @@
         <f>F44</f>
         <v>1.2</v>
       </c>
-      <c r="G47" s="67">
+      <c r="G47" s="55">
         <f t="shared" si="6"/>
         <v>-0.20115818348064615</v>
       </c>
@@ -2749,7 +2801,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="24"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="38" t="s">
         <v>41</v>
@@ -2758,13 +2810,13 @@
       <c r="D48" s="23"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="67"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="25"/>
       <c r="I48" s="26"/>
       <c r="J48" s="7"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="39" t="s">
         <v>30</v>
@@ -2782,7 +2834,7 @@
         <f>((6.75+8)/2)/3.281</f>
         <v>2.2477903078329775</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="55">
         <f t="shared" si="6"/>
         <v>1.1868332825358121</v>
       </c>
@@ -2791,7 +2843,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="39" t="s">
         <v>31</v>
@@ -2810,7 +2862,7 @@
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G50" s="67">
+      <c r="G50" s="55">
         <f t="shared" si="6"/>
         <v>2.9195138677232548</v>
       </c>
@@ -2819,7 +2871,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="24"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="39"/>
       <c r="C51" s="22">
@@ -2836,7 +2888,7 @@
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G51" s="67">
+      <c r="G51" s="55">
         <f t="shared" si="6"/>
         <v>1.1537431487211145</v>
       </c>
@@ -2845,7 +2897,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="24"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="39" t="s">
         <v>42</v>
@@ -2863,7 +2915,7 @@
       <c r="F52" s="24">
         <v>0.23</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="55">
         <f t="shared" si="6"/>
         <v>0.31034451691557458</v>
       </c>
@@ -2872,7 +2924,7 @@
       <c r="J52" s="7"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="39" t="s">
         <v>34</v>
@@ -2890,7 +2942,7 @@
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G53" s="67">
+      <c r="G53" s="55">
         <f t="shared" si="6"/>
         <v>-0.3224626638220055</v>
       </c>
@@ -2899,7 +2951,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="24"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="39" t="s">
         <v>33</v>
@@ -2918,7 +2970,7 @@
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="55">
         <f t="shared" si="6"/>
         <v>-7.4993304666872457E-2</v>
       </c>
@@ -2927,7 +2979,7 @@
       <c r="J54" s="7"/>
       <c r="K54" s="24"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="39"/>
       <c r="C55" s="22">
@@ -2944,7 +2996,7 @@
         <f>1.17/3.281</f>
         <v>0.35659859798841814</v>
       </c>
-      <c r="G55" s="67">
+      <c r="G55" s="55">
         <f t="shared" si="6"/>
         <v>-0.14998660933374491</v>
       </c>
@@ -2953,7 +3005,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="24"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="39" t="s">
         <v>53</v>
@@ -2962,13 +3014,13 @@
       <c r="D56" s="23"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="67"/>
+      <c r="G56" s="55"/>
       <c r="H56" s="25"/>
       <c r="I56" s="26"/>
       <c r="J56" s="7"/>
       <c r="K56" s="24"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="39" t="s">
         <v>31</v>
@@ -2986,7 +3038,7 @@
         <f>7.25/3.281</f>
         <v>2.2096921670222494</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="55">
         <f t="shared" si="6"/>
         <v>0.58114903992685163</v>
       </c>
@@ -2995,7 +3047,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="39"/>
       <c r="C58" s="22">
@@ -3012,7 +3064,7 @@
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="G58" s="67">
+      <c r="G58" s="55">
         <f t="shared" si="6"/>
         <v>0.1042255409935995</v>
       </c>
@@ -3021,7 +3073,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="24"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="39" t="s">
         <v>30</v>
@@ -3039,7 +3091,7 @@
         <f>7.25/3.281</f>
         <v>2.2096921670222494</v>
       </c>
-      <c r="G59" s="67">
+      <c r="G59" s="55">
         <f t="shared" si="6"/>
         <v>0.66290765010667485</v>
       </c>
@@ -3048,7 +3100,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="24"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="39" t="s">
         <v>34</v>
@@ -3067,7 +3119,7 @@
         <f>5.5/3.281</f>
         <v>1.6763181956720512</v>
       </c>
-      <c r="G60" s="67">
+      <c r="G60" s="55">
         <f t="shared" si="6"/>
         <v>-0.25545842664920015</v>
       </c>
@@ -3076,7 +3128,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="24"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="39" t="s">
         <v>46</v>
@@ -3094,7 +3146,7 @@
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G61" s="67">
+      <c r="G61" s="55">
         <f t="shared" si="6"/>
         <v>0.94635781773849437</v>
       </c>
@@ -3103,7 +3155,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="24"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="39" t="s">
         <v>34</v>
@@ -3120,7 +3172,7 @@
       <c r="F62" s="24">
         <v>1.8</v>
       </c>
-      <c r="G62" s="67">
+      <c r="G62" s="55">
         <f t="shared" ref="G62:G70" si="8">PRODUCT(C62:F62)</f>
         <v>-0.64584000000000008</v>
       </c>
@@ -3129,7 +3181,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="38" t="s">
         <v>52</v>
@@ -3138,13 +3190,13 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
-      <c r="G63" s="67"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="25"/>
       <c r="I63" s="26"/>
       <c r="J63" s="7"/>
       <c r="K63" s="24"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="39" t="s">
         <v>56</v>
@@ -3162,7 +3214,7 @@
         <f>6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G64" s="67">
+      <c r="G64" s="55">
         <f t="shared" si="8"/>
         <v>0.99840749771411152</v>
       </c>
@@ -3171,7 +3223,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="24"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="39"/>
       <c r="C65" s="22">
@@ -3187,7 +3239,7 @@
         <f t="shared" ref="F65:F66" si="9">6.75/3.281</f>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G65" s="67">
+      <c r="G65" s="55">
         <f t="shared" si="8"/>
         <v>0.43409021639743978</v>
       </c>
@@ -3196,7 +3248,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="39"/>
       <c r="C66" s="22">
@@ -3212,7 +3264,7 @@
         <f t="shared" si="9"/>
         <v>2.0572996037793354</v>
       </c>
-      <c r="G66" s="67">
+      <c r="G66" s="55">
         <f t="shared" si="8"/>
         <v>0.69125266686985676</v>
       </c>
@@ -3221,7 +3273,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="24"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="39" t="s">
         <v>34</v>
@@ -3239,7 +3291,7 @@
         <f>6/3.281</f>
         <v>1.8287107589149649</v>
       </c>
-      <c r="G67" s="67">
+      <c r="G67" s="55">
         <f t="shared" si="8"/>
         <v>-0.32807071014934469</v>
       </c>
@@ -3248,7 +3300,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="24"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="39" t="s">
         <v>33</v>
@@ -3265,7 +3317,7 @@
       <c r="F68" s="24">
         <v>0.3</v>
       </c>
-      <c r="G68" s="67">
+      <c r="G68" s="55">
         <f t="shared" si="8"/>
         <v>-2.7000000000000003E-2</v>
       </c>
@@ -3274,7 +3326,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="24"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="39" t="s">
         <v>42</v>
@@ -3293,7 +3345,7 @@
         <f>2.583/3.281</f>
         <v>0.78725998171289246</v>
       </c>
-      <c r="G69" s="67">
+      <c r="G69" s="55">
         <f t="shared" si="8"/>
         <v>0.28973374822258996</v>
       </c>
@@ -3302,7 +3354,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="39" t="s">
         <v>59</v>
@@ -3320,7 +3372,7 @@
         <f>0.42/3.281</f>
         <v>0.12800975312404753</v>
       </c>
-      <c r="G70" s="67">
+      <c r="G70" s="55">
         <f t="shared" si="8"/>
         <v>1.2288936299908564E-2</v>
       </c>
@@ -3329,7 +3381,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="24"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="39" t="s">
         <v>36</v>
@@ -3338,7 +3390,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
-      <c r="G71" s="72">
+      <c r="G71" s="60">
         <f>SUM(G12:G70)</f>
         <v>46.720463339199377</v>
       </c>
@@ -3354,37 +3406,37 @@
       </c>
       <c r="K71" s="24"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="39"/>
       <c r="C72" s="22"/>
       <c r="D72" s="23"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
-      <c r="G72" s="67"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="25"/>
       <c r="I72" s="26"/>
       <c r="J72" s="7"/>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>2</v>
       </c>
-      <c r="B73" s="36" t="s">
-        <v>37</v>
+      <c r="B73" s="77" t="s">
+        <v>95</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="23"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="67"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26"/>
       <c r="J73" s="7"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="38" t="str">
         <f>B11</f>
@@ -3400,7 +3452,7 @@
         <v>3.2</v>
       </c>
       <c r="F74" s="24"/>
-      <c r="G74" s="67">
+      <c r="G74" s="55">
         <f t="shared" ref="G74:G83" si="10">PRODUCT(C74:F74)</f>
         <v>90.220799999999997</v>
       </c>
@@ -3413,7 +3465,7 @@
       <c r="P74" s="34"/>
       <c r="Q74" s="34"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="38"/>
       <c r="C75" s="22">
@@ -3426,7 +3478,7 @@
       <c r="F75" s="24">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G75" s="67">
+      <c r="G75" s="55">
         <f t="shared" si="10"/>
         <v>4.0600000000000005</v>
       </c>
@@ -3439,7 +3491,7 @@
       <c r="P75" s="34"/>
       <c r="Q75" s="34"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="39"/>
       <c r="C76" s="22">
@@ -3453,7 +3505,7 @@
       <c r="F76" s="24">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G76" s="67">
+      <c r="G76" s="55">
         <f>C76*0.5*D76*F76</f>
         <v>2.4125000000000001</v>
       </c>
@@ -3466,7 +3518,7 @@
       <c r="P76" s="34"/>
       <c r="Q76" s="34"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="39" t="s">
         <v>55</v>
@@ -3482,7 +3534,7 @@
         <f>6.5/3.281</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G77" s="67">
+      <c r="G77" s="55">
         <f>C77*0.5*D77*F77</f>
         <v>1.664126790612618</v>
       </c>
@@ -3495,7 +3547,7 @@
       <c r="P77" s="34"/>
       <c r="Q77" s="34"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="38" t="str">
         <f>B23</f>
@@ -3511,7 +3563,7 @@
         <v>3.15</v>
       </c>
       <c r="F78" s="24"/>
-      <c r="G78" s="67">
+      <c r="G78" s="55">
         <f t="shared" si="10"/>
         <v>87.853499999999997</v>
       </c>
@@ -3524,7 +3576,7 @@
       <c r="P78" s="34"/>
       <c r="Q78" s="34"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="38"/>
       <c r="C79" s="22">
@@ -3537,7 +3589,7 @@
       <c r="F79" s="24">
         <v>0.40600000000000003</v>
       </c>
-      <c r="G79" s="67">
+      <c r="G79" s="55">
         <f t="shared" si="10"/>
         <v>3.671052</v>
       </c>
@@ -3550,7 +3602,7 @@
       <c r="P79" s="34"/>
       <c r="Q79" s="34"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="39"/>
       <c r="C80" s="22">
@@ -3564,7 +3616,7 @@
       <c r="F80" s="24">
         <v>0.99099999999999999</v>
       </c>
-      <c r="G80" s="67">
+      <c r="G80" s="55">
         <f>C80*0.5*D80*F80</f>
         <v>2.2401554999999997</v>
       </c>
@@ -3577,7 +3629,7 @@
       <c r="P80" s="34"/>
       <c r="Q80" s="34"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="39" t="s">
         <v>55</v>
@@ -3593,7 +3645,7 @@
         <f>6.5/3.281</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G81" s="67">
+      <c r="G81" s="55">
         <f>C81*0.5*D81*F81</f>
         <v>1.664126790612618</v>
       </c>
@@ -3606,7 +3658,7 @@
       <c r="P81" s="34"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="38" t="str">
         <f>B34</f>
@@ -3622,7 +3674,7 @@
         <v>3.35</v>
       </c>
       <c r="F82" s="24"/>
-      <c r="G82" s="67">
+      <c r="G82" s="55">
         <f t="shared" si="10"/>
         <v>96.486699999999999</v>
       </c>
@@ -3641,7 +3693,7 @@
       <c r="P82" s="34"/>
       <c r="Q82" s="34"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="38"/>
       <c r="C83" s="22">
@@ -3654,7 +3706,7 @@
       <c r="F83" s="24">
         <v>0.35599999999999998</v>
       </c>
-      <c r="G83" s="67">
+      <c r="G83" s="55">
         <f t="shared" si="10"/>
         <v>2.8757679999999994</v>
       </c>
@@ -3667,7 +3719,7 @@
       <c r="P83" s="34"/>
       <c r="Q83" s="34"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="38"/>
       <c r="C84" s="22">
@@ -3681,7 +3733,7 @@
       <c r="F84" s="24">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G84" s="67">
+      <c r="G84" s="55">
         <f>C84*0.5*D84*F84</f>
         <v>1.744848</v>
       </c>
@@ -3694,7 +3746,7 @@
       <c r="P84" s="34"/>
       <c r="Q84" s="34"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="39" t="s">
         <v>55</v>
@@ -3710,7 +3762,7 @@
         <f>6.5/3.281</f>
         <v>1.9811033221578787</v>
       </c>
-      <c r="G85" s="67">
+      <c r="G85" s="55">
         <f>C85*0.5*D85*F85</f>
         <v>1.664126790612618</v>
       </c>
@@ -3723,7 +3775,7 @@
       <c r="P85" s="34"/>
       <c r="Q85" s="34"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="38" t="s">
         <v>43</v>
@@ -3732,7 +3784,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
-      <c r="G86" s="67"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="25"/>
       <c r="I86" s="26"/>
       <c r="J86" s="7"/>
@@ -3742,7 +3794,7 @@
       <c r="P86" s="34"/>
       <c r="Q86" s="34"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
       <c r="B87" s="39" t="s">
         <v>44</v>
@@ -3758,7 +3810,7 @@
         <v>3.4288326729655592</v>
       </c>
       <c r="F87" s="24"/>
-      <c r="G87" s="67">
+      <c r="G87" s="55">
         <f t="shared" ref="G87" si="11">PRODUCT(C87:F87)</f>
         <v>21.94452910697958</v>
       </c>
@@ -3771,7 +3823,7 @@
       <c r="P87" s="34"/>
       <c r="Q87" s="34"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="39" t="s">
         <v>55</v>
@@ -3787,7 +3839,7 @@
         <f>5.75/3.281</f>
         <v>1.752514477293508</v>
       </c>
-      <c r="G88" s="67">
+      <c r="G88" s="55">
         <f>C88*0.5*D88*F88</f>
         <v>0.70100579091740323</v>
       </c>
@@ -3800,7 +3852,7 @@
       <c r="P88" s="34"/>
       <c r="Q88" s="34"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="39" t="s">
         <v>36</v>
@@ -3809,7 +3861,7 @@
       <c r="D89" s="23"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
-      <c r="G89" s="72">
+      <c r="G89" s="60">
         <f>SUM(G74:G88)</f>
         <v>319.20323876973481</v>
       </c>
@@ -3825,37 +3877,4377 @@
       </c>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="39"/>
       <c r="C90" s="22"/>
       <c r="D90" s="23"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
-      <c r="G90" s="67"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="25"/>
       <c r="I90" s="26"/>
       <c r="J90" s="7"/>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
-        <v>3</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>45</v>
-      </c>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="21"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="22"/>
       <c r="D91" s="23"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
-      <c r="G91" s="67"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="25"/>
       <c r="I91" s="26"/>
       <c r="J91" s="7"/>
       <c r="K91" s="24"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <v>4</v>
+      </c>
+      <c r="B92" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="21"/>
+      <c r="B93" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="4"/>
+      <c r="M94" s="29"/>
+    </row>
+    <row r="95" spans="1:17" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="8">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D95" s="6">
+        <f>10.5/3.281</f>
+        <v>3.2002438281011885</v>
+      </c>
+      <c r="E95" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="F95" s="6">
+        <f>PRODUCT(C95:E95)</f>
+        <v>78.725998171289234</v>
+      </c>
+      <c r="G95" s="55">
+        <f>F95/1000</f>
+        <v>7.8725998171289238E-2</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="4"/>
+      <c r="M95" s="29"/>
+    </row>
+    <row r="96" spans="1:17" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="8">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D96" s="6">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" ref="F96:F98" si="12">PRODUCT(C96:E96)</f>
+        <v>23.407497714111546</v>
+      </c>
+      <c r="G96" s="55">
+        <f t="shared" ref="G96:G144" si="13">F96/1000</f>
+        <v>2.3407497714111547E-2</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="4"/>
+      <c r="M96" s="29"/>
+    </row>
+    <row r="97" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9"/>
+      <c r="B97" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="8">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D97" s="6">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="12"/>
+        <v>6.8576653459311183</v>
+      </c>
+      <c r="G97" s="55">
+        <f t="shared" si="13"/>
+        <v>6.8576653459311186E-3</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="47"/>
+      <c r="M97" s="29"/>
+    </row>
+    <row r="98" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="9"/>
+      <c r="B98" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="8">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="D98" s="6">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="E98" s="6">
+        <v>2.46</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="12"/>
+        <v>116.727</v>
+      </c>
+      <c r="G98" s="55">
+        <f t="shared" si="13"/>
+        <v>0.116727</v>
+      </c>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="47"/>
+      <c r="M98" s="29"/>
+    </row>
+    <row r="99" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6">
+        <v>14.147</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" ref="F99:F103" si="14">PRODUCT(C99:E99)</f>
+        <v>54.324480000000001</v>
+      </c>
+      <c r="G99" s="55">
+        <f t="shared" si="13"/>
+        <v>5.4324480000000001E-2</v>
+      </c>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="4"/>
+      <c r="M99" s="29"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="8">
+        <v>8</v>
+      </c>
+      <c r="D100" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E100" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="14"/>
+        <v>410.11200000000002</v>
+      </c>
+      <c r="G100" s="55">
+        <f t="shared" si="13"/>
+        <v>0.41011200000000003</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="47"/>
+      <c r="M100" s="29"/>
+      <c r="O100">
+        <f>3.6+5*0.05-0.05</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
+      <c r="B101" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="47"/>
+      <c r="M101" s="29"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
+      <c r="B102" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="8">
+        <f>2*7</f>
+        <v>14</v>
+      </c>
+      <c r="D102" s="6">
+        <v>2.375</v>
+      </c>
+      <c r="E102" s="6">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="14"/>
+        <v>29.555555555555554</v>
+      </c>
+      <c r="G102" s="55">
+        <f t="shared" si="13"/>
+        <v>2.9555555555555554E-2</v>
+      </c>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="47"/>
+      <c r="M102" s="29"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
+      <c r="B103" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="8">
+        <f>2*9</f>
+        <v>18</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E103" s="6">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="14"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="G103" s="55">
+        <f t="shared" si="13"/>
+        <v>1.9199999999999995E-2</v>
+      </c>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="47"/>
+      <c r="M103" s="29"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="9"/>
+      <c r="B104" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="47"/>
+      <c r="M104" s="29"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="9"/>
+      <c r="B105" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="8">
+        <f>10*3</f>
+        <v>30</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2.375</v>
+      </c>
+      <c r="E105" s="6">
+        <f>6*6/162</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" ref="F105:F107" si="15">PRODUCT(C105:E105)</f>
+        <v>15.833333333333332</v>
+      </c>
+      <c r="G105" s="55">
+        <f t="shared" si="13"/>
+        <v>1.5833333333333331E-2</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="47"/>
+      <c r="M105" s="29"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="9"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="8">
+        <f>10*4</f>
+        <v>40</v>
+      </c>
+      <c r="D106" s="6">
+        <v>2.375</v>
+      </c>
+      <c r="E106" s="6">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" ref="F106" si="16">PRODUCT(C106:E106)</f>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G106" s="55">
+        <f t="shared" si="13"/>
+        <v>8.4444444444444447E-2</v>
+      </c>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="47"/>
+      <c r="M106" s="29"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="9"/>
+      <c r="B107" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="8">
+        <f>10*2</f>
+        <v>20</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E107" s="6">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="15"/>
+        <v>9.481481481481481</v>
+      </c>
+      <c r="G107" s="55">
+        <f t="shared" si="13"/>
+        <v>9.4814814814814814E-3</v>
+      </c>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="47"/>
+      <c r="M107" s="29"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="9"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="8">
+        <f>10*1</f>
+        <v>10</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E108" s="6">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" ref="F108:F109" si="17">PRODUCT(C108:E108)</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G108" s="55">
+        <f t="shared" si="13"/>
+        <v>1.0666666666666666E-2</v>
+      </c>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="47"/>
+      <c r="M108" s="29"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="9"/>
+      <c r="B109" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="8">
+        <f>8*8</f>
+        <v>64</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="E109" s="6">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="17"/>
+        <v>12.389135802469134</v>
+      </c>
+      <c r="G109" s="55">
+        <f t="shared" si="13"/>
+        <v>1.2389135802469134E-2</v>
+      </c>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="47"/>
+      <c r="M109" s="29"/>
+    </row>
+    <row r="110" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="9"/>
+      <c r="B110" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="47"/>
+      <c r="M110" s="29"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="9"/>
+      <c r="B111" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="8">
+        <f>4*2+2*10</f>
+        <v>28</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E111" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" ref="F111" si="18">PRODUCT(C111:E111)</f>
+        <v>70.56</v>
+      </c>
+      <c r="G111" s="55">
+        <f t="shared" si="13"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="47"/>
+      <c r="M111" s="29"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="9"/>
+      <c r="B112" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="8">
+        <f>10*2+4*2</f>
+        <v>28</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" ref="F112" si="19">PRODUCT(C112:E112)</f>
+        <v>49.2744</v>
+      </c>
+      <c r="G112" s="55">
+        <f t="shared" si="13"/>
+        <v>4.9274400000000003E-2</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="47"/>
+      <c r="M112" s="29"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="9"/>
+      <c r="B113" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="47"/>
+      <c r="M113" s="29"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="9"/>
+      <c r="B114" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="8">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D114" s="6">
+        <f>1.2+3.5/3.281</f>
+        <v>2.266747942700396</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" ref="F114:F115" si="20">PRODUCT(C114:E114)</f>
+        <v>19.040682718683328</v>
+      </c>
+      <c r="G114" s="55">
+        <f t="shared" si="13"/>
+        <v>1.9040682718683328E-2</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="47"/>
+      <c r="M114" s="29"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="9"/>
+      <c r="B115" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="8">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F115" s="6">
+        <f t="shared" si="20"/>
+        <v>7.0392000000000001</v>
+      </c>
+      <c r="G115" s="55">
+        <f t="shared" si="13"/>
+        <v>7.0391999999999998E-3</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="47"/>
+      <c r="M115" s="29"/>
+    </row>
+    <row r="116" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="9"/>
+      <c r="B116" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="47"/>
+      <c r="M116" s="29"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="8">
+        <f>4*8</f>
+        <v>32</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="E117" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F117" s="6">
+        <f t="shared" ref="F117:F118" si="21">PRODUCT(C117:E117)</f>
+        <v>32.927999999999997</v>
+      </c>
+      <c r="G117" s="55">
+        <f t="shared" si="13"/>
+        <v>3.2927999999999999E-2</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="47"/>
+      <c r="M117" s="29"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="9"/>
+      <c r="B118" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="8">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2.3780000000000001</v>
+      </c>
+      <c r="E118" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="21"/>
+        <v>19.975200000000001</v>
+      </c>
+      <c r="G118" s="55">
+        <f t="shared" si="13"/>
+        <v>1.9975200000000002E-2</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="47"/>
+      <c r="M118" s="29"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="9"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="8">
+        <f t="shared" ref="C119:C121" si="22">2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="E119" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" ref="F119:F122" si="23">PRODUCT(C119:E119)</f>
+        <v>19.664400000000004</v>
+      </c>
+      <c r="G119" s="55">
+        <f t="shared" si="13"/>
+        <v>1.9664400000000005E-2</v>
+      </c>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="47"/>
+      <c r="M119" s="29"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="9"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="8">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="E120" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="23"/>
+        <v>19.630800000000001</v>
+      </c>
+      <c r="G120" s="55">
+        <f t="shared" si="13"/>
+        <v>1.96308E-2</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="47"/>
+      <c r="M120" s="29"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="9"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="8">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" si="23"/>
+        <v>19.706400000000002</v>
+      </c>
+      <c r="G121" s="55">
+        <f t="shared" si="13"/>
+        <v>1.9706400000000002E-2</v>
+      </c>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="47"/>
+      <c r="M121" s="29"/>
+    </row>
+    <row r="122" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="9"/>
+      <c r="B122" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="8">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E122" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="23"/>
+        <v>60.192</v>
+      </c>
+      <c r="G122" s="55">
+        <f t="shared" si="13"/>
+        <v>6.0192000000000002E-2</v>
+      </c>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="47"/>
+      <c r="M122" s="29"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="47"/>
+      <c r="M123" s="29"/>
+    </row>
+    <row r="124" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="9"/>
+      <c r="B124" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="47"/>
+      <c r="M124" s="29"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="9"/>
+      <c r="B125" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" s="8">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E125" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" ref="F125:F126" si="24">PRODUCT(C125:E125)</f>
+        <v>70.56</v>
+      </c>
+      <c r="G125" s="55">
+        <f t="shared" si="13"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="47"/>
+      <c r="M125" s="29"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="9"/>
+      <c r="B126" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="8">
+        <f>14*2</f>
+        <v>28</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E126" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="24"/>
+        <v>49.2744</v>
+      </c>
+      <c r="G126" s="55">
+        <f t="shared" si="13"/>
+        <v>4.9274400000000003E-2</v>
+      </c>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="47"/>
+      <c r="M126" s="29"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="9"/>
+      <c r="B127" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="47"/>
+      <c r="M127" s="29"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="9"/>
+      <c r="B128" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="8">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D128" s="6">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E128" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" ref="F128:F129" si="25">PRODUCT(C128:E128)</f>
+        <v>16.641267906126181</v>
+      </c>
+      <c r="G128" s="55">
+        <f t="shared" si="13"/>
+        <v>1.6641267906126182E-2</v>
+      </c>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="47"/>
+      <c r="M128" s="29"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="9"/>
+      <c r="B129" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="8">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E129" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="25"/>
+        <v>7.0392000000000001</v>
+      </c>
+      <c r="G129" s="55">
+        <f t="shared" si="13"/>
+        <v>7.0391999999999998E-3</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="47"/>
+      <c r="M129" s="29"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="9"/>
+      <c r="B130" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="47"/>
+      <c r="M130" s="29"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="9"/>
+      <c r="B131" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="8">
+        <f>14*6</f>
+        <v>84</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E131" s="6">
+        <f>7*7/162</f>
+        <v>0.30246913580246915</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" ref="F131:F132" si="26">PRODUCT(C131:E131)</f>
+        <v>21.291407407407409</v>
+      </c>
+      <c r="G131" s="55">
+        <f t="shared" si="13"/>
+        <v>2.1291407407407408E-2</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="47"/>
+      <c r="M131" s="29"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="9"/>
+      <c r="B132" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C132" s="8">
+        <f>14*5</f>
+        <v>70</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E132" s="6">
+        <f>10*10/162</f>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="26"/>
+        <v>51.851851851851848</v>
+      </c>
+      <c r="G132" s="55">
+        <f t="shared" si="13"/>
+        <v>5.185185185185185E-2</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="47"/>
+      <c r="M132" s="29"/>
+    </row>
+    <row r="133" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="9"/>
+      <c r="B133" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="47"/>
+      <c r="M133" s="29"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="9"/>
+      <c r="B134" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" s="8">
+        <f>8*2*2</f>
+        <v>32</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E134" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" ref="F134:F135" si="27">PRODUCT(C134:E134)</f>
+        <v>20.16</v>
+      </c>
+      <c r="G134" s="55">
+        <f t="shared" si="13"/>
+        <v>2.0160000000000001E-2</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="47"/>
+      <c r="M134" s="29"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="9"/>
+      <c r="B135" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="8">
+        <v>2</v>
+      </c>
+      <c r="D135" s="6">
+        <v>13.38</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" si="27"/>
+        <v>56.196000000000005</v>
+      </c>
+      <c r="G135" s="55">
+        <f t="shared" si="13"/>
+        <v>5.6196000000000003E-2</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="47"/>
+      <c r="M135" s="29"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="9"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="8">
+        <v>2</v>
+      </c>
+      <c r="D136" s="6">
+        <v>13.233000000000001</v>
+      </c>
+      <c r="E136" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" ref="F136" si="28">PRODUCT(C136:E136)</f>
+        <v>55.578600000000002</v>
+      </c>
+      <c r="G136" s="55">
+        <f t="shared" si="13"/>
+        <v>5.5578599999999999E-2</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="47"/>
+      <c r="M136" s="29"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="8">
+        <f>5*4*2*2</f>
+        <v>80</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E137" s="6">
+        <f>11*11/162</f>
+        <v>0.74691358024691357</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" ref="F137" si="29">PRODUCT(C137:E137)</f>
+        <v>17.925925925925924</v>
+      </c>
+      <c r="G137" s="55">
+        <f t="shared" si="13"/>
+        <v>1.7925925925925925E-2</v>
+      </c>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="47"/>
+      <c r="M137" s="29"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="8">
+        <f>6*8*2</f>
+        <v>96</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E138" s="6">
+        <f>11*11/162</f>
+        <v>0.74691358024691357</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" ref="F138:F140" si="30">PRODUCT(C138:E138)</f>
+        <v>43.022222222222219</v>
+      </c>
+      <c r="G138" s="55">
+        <f t="shared" si="13"/>
+        <v>4.3022222222222219E-2</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="47"/>
+      <c r="M138" s="29"/>
+    </row>
+    <row r="139" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="48"/>
+      <c r="B139" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" s="50">
+        <v>2</v>
+      </c>
+      <c r="D139" s="10">
+        <f>2.75+0.75</f>
+        <v>3.5</v>
+      </c>
+      <c r="E139" s="10">
+        <v>4.18</v>
+      </c>
+      <c r="F139" s="10">
+        <f t="shared" si="30"/>
+        <v>29.259999999999998</v>
+      </c>
+      <c r="G139" s="55">
+        <f t="shared" ref="G139" si="31">F139/1000</f>
+        <v>2.9259999999999998E-2</v>
+      </c>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="51"/>
+      <c r="M139" s="12"/>
+    </row>
+    <row r="140" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="48"/>
+      <c r="B140" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="50">
+        <f>5*2*2</f>
+        <v>20</v>
+      </c>
+      <c r="D140" s="10">
+        <f>2.75+0.75</f>
+        <v>3.5</v>
+      </c>
+      <c r="E140" s="10">
+        <v>7.37</v>
+      </c>
+      <c r="F140" s="10">
+        <f t="shared" si="30"/>
+        <v>515.9</v>
+      </c>
+      <c r="G140" s="55">
+        <f t="shared" si="13"/>
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M140" s="12"/>
+    </row>
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="48"/>
+      <c r="B141" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="50"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="51"/>
+      <c r="M141" s="12"/>
+    </row>
+    <row r="142" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="48"/>
+      <c r="B142" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="50">
+        <f>2*5*2</f>
+        <v>20</v>
+      </c>
+      <c r="D142" s="10">
+        <f>10/3.281</f>
+        <v>3.047851264858275</v>
+      </c>
+      <c r="E142" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="F142" s="10">
+        <f t="shared" ref="F142" si="32">PRODUCT(C142:E142)</f>
+        <v>435.23316062176167</v>
+      </c>
+      <c r="G142" s="55">
+        <f t="shared" si="13"/>
+        <v>0.43523316062176165</v>
+      </c>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M142" s="12"/>
+    </row>
+    <row r="143" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="9"/>
+      <c r="B143" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="50">
+        <f>6*2*2</f>
+        <v>24</v>
+      </c>
+      <c r="D143" s="10">
+        <f>((13.843+13.691)/2)/3.281</f>
+        <v>4.1959768363303871</v>
+      </c>
+      <c r="E143" s="10">
+        <v>7.14</v>
+      </c>
+      <c r="F143" s="10">
+        <f t="shared" ref="F143" si="33">PRODUCT(C143:E143)</f>
+        <v>719.022590673575</v>
+      </c>
+      <c r="G143" s="55">
+        <f t="shared" si="13"/>
+        <v>0.71902259067357499</v>
+      </c>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="47"/>
+      <c r="M143" s="29"/>
+    </row>
+    <row r="144" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="9"/>
+      <c r="B144" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="50">
+        <f>5*2</f>
+        <v>10</v>
+      </c>
+      <c r="D144" s="10">
+        <f>(4.75+7.667+4.75+1.5+2)/3.281</f>
+        <v>6.298994209082597</v>
+      </c>
+      <c r="E144" s="10">
+        <v>4.82</v>
+      </c>
+      <c r="F144" s="10">
+        <f t="shared" ref="F144" si="34">PRODUCT(C144:E144)</f>
+        <v>303.61152087778117</v>
+      </c>
+      <c r="G144" s="55">
+        <f t="shared" si="13"/>
+        <v>0.30361152087778115</v>
+      </c>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="47"/>
+      <c r="M144" s="29"/>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A145" s="21"/>
+      <c r="B145" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="27">
+        <f>SUM(G95:G144)</f>
+        <v>3.602304488720617</v>
+      </c>
+      <c r="H145" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I145" s="26">
+        <v>3541.11</v>
+      </c>
+      <c r="J145" s="7">
+        <f>G145*I145</f>
+        <v>12756.156448053465</v>
+      </c>
+      <c r="K145" s="24"/>
+    </row>
+    <row r="146" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="21"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="24"/>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A147" s="21">
+        <v>5</v>
+      </c>
+      <c r="B147" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="24"/>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A148" s="21"/>
+      <c r="B148" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" s="22">
+        <v>9</v>
+      </c>
+      <c r="D148" s="23">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="E148" s="24">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F148" s="24">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G148" s="55">
+        <f t="shared" ref="G148:G154" si="35">PRODUCT(C148:F148)</f>
+        <v>0.11678989331722038</v>
+      </c>
+      <c r="H148" s="25"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="24"/>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A149" s="9"/>
+      <c r="B149" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="8">
+        <v>2</v>
+      </c>
+      <c r="D149" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E149" s="6">
+        <f>1/12/3.281</f>
+        <v>2.5398760540485621E-2</v>
+      </c>
+      <c r="F149" s="6">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G149" s="55">
+        <f t="shared" si="35"/>
+        <v>2.4771726220528492E-2</v>
+      </c>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="4"/>
+      <c r="M149" s="29"/>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A150" s="9"/>
+      <c r="B150" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="8">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6">
+        <f>2*(5.75/3.281)+0.8</f>
+        <v>4.3050289545870157</v>
+      </c>
+      <c r="E150" s="6">
+        <f>2.25/12/3.281</f>
+        <v>5.7147211216092654E-2</v>
+      </c>
+      <c r="F150" s="6">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G150" s="55">
+        <f t="shared" si="35"/>
+        <v>1.56215330030973E-2</v>
+      </c>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="4"/>
+      <c r="M150" s="29"/>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A151" s="9"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="8">
+        <v>2</v>
+      </c>
+      <c r="D151" s="6">
+        <f>2*(5.5/3.281)+2.5/3.281</f>
+        <v>4.1145992075586708</v>
+      </c>
+      <c r="E151" s="6">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F151" s="6">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G151" s="55">
+        <f t="shared" si="35"/>
+        <v>3.1851789086514648E-2</v>
+      </c>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="4"/>
+      <c r="M151" s="29"/>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A152" s="9"/>
+      <c r="B152" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C152" s="8">
+        <v>2</v>
+      </c>
+      <c r="D152" s="6">
+        <f>0.78+1.8*2</f>
+        <v>4.38</v>
+      </c>
+      <c r="E152" s="6">
+        <f>2/12/3.281</f>
+        <v>5.0797521080971242E-2</v>
+      </c>
+      <c r="F152" s="6">
+        <f>3/12/3.281</f>
+        <v>7.6196281621456863E-2</v>
+      </c>
+      <c r="G152" s="55">
+        <f t="shared" si="35"/>
+        <v>3.390630026434837E-2</v>
+      </c>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="4"/>
+      <c r="M152" s="29"/>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="B153" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="53">
+        <v>2</v>
+      </c>
+      <c r="D153" s="54">
+        <v>0.78</v>
+      </c>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="G153" s="40"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="4"/>
+      <c r="M153" s="29"/>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A154" s="9"/>
+      <c r="B154" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="57">
+        <v>1</v>
+      </c>
+      <c r="D154" s="58">
+        <f>0.78+2*(6/3.281)</f>
+        <v>4.4374215178299297</v>
+      </c>
+      <c r="E154" s="58">
+        <f>3.5/12/3.281</f>
+        <v>8.8895661891699687E-2</v>
+      </c>
+      <c r="F154" s="58">
+        <f>2.5/12/3.281</f>
+        <v>6.3496901351214066E-2</v>
+      </c>
+      <c r="G154" s="55">
+        <f t="shared" si="35"/>
+        <v>2.504746538910662E-2</v>
+      </c>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="4"/>
+      <c r="M154" s="29"/>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A155" s="9"/>
+      <c r="B155" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="53">
+        <v>1</v>
+      </c>
+      <c r="D155" s="54">
+        <v>0.78</v>
+      </c>
+      <c r="E155" s="54"/>
+      <c r="F155" s="54">
+        <v>1.8</v>
+      </c>
+      <c r="G155" s="40"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="4"/>
+      <c r="M155" s="29"/>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A156" s="21"/>
+      <c r="B156" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" s="22"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="61">
+        <f>SUM(G148:G154)</f>
+        <v>0.24798870728081582</v>
+      </c>
+      <c r="H156" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I156" s="63"/>
+      <c r="J156" s="64">
+        <f>G156*I156</f>
+        <v>0</v>
+      </c>
+      <c r="K156" s="24"/>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A157" s="9"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="4"/>
+      <c r="M157" s="29"/>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A158" s="9"/>
+      <c r="B158" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7">
+        <f>SUM(J10:J90)</f>
+        <v>113426.32198961584</v>
+      </c>
+      <c r="K158" s="4"/>
+      <c r="M158" s="29"/>
+      <c r="P158" s="32"/>
+      <c r="Q158" s="32"/>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M159" s="29"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="30"/>
+      <c r="P159" s="31"/>
+      <c r="R159" s="30"/>
+      <c r="S159" s="30"/>
+      <c r="T159" s="30"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="29"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="29"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="29"/>
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="29"/>
+      <c r="AE159" s="29"/>
+    </row>
+    <row r="160" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="65">
+        <f>J158</f>
+        <v>113426.32198961584</v>
+      </c>
+      <c r="D160" s="66"/>
+      <c r="E160" s="10">
+        <v>100</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="16"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="30"/>
+      <c r="O160" s="30"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="30"/>
+      <c r="R160" s="30"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="30"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="12"/>
+      <c r="AA160" s="12"/>
+      <c r="AB160" s="12"/>
+      <c r="AC160" s="12"/>
+      <c r="AD160" s="12"/>
+      <c r="AE160" s="12"/>
+    </row>
+    <row r="161" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B161" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="69">
+        <v>150000</v>
+      </c>
+      <c r="D161" s="70"/>
+      <c r="E161" s="10"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="30"/>
+      <c r="P161" s="30"/>
+      <c r="Q161" s="30"/>
+      <c r="R161" s="30"/>
+      <c r="S161" s="30"/>
+      <c r="T161" s="30"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="29"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="29"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="29"/>
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="29"/>
+      <c r="AE161" s="29"/>
+    </row>
+    <row r="162" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B162" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="69">
+        <f>C161-C164-C165</f>
+        <v>142500</v>
+      </c>
+      <c r="D162" s="70"/>
+      <c r="E162" s="10">
+        <f>C162/C160*100</f>
+        <v>125.63221437528922</v>
+      </c>
+      <c r="M162" s="29"/>
+      <c r="N162" s="29"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="29"/>
+      <c r="Q162" s="29"/>
+      <c r="R162" s="29"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="29"/>
+      <c r="U162" s="29"/>
+      <c r="V162" s="29"/>
+      <c r="W162" s="29"/>
+      <c r="X162" s="29"/>
+      <c r="Y162" s="29"/>
+      <c r="Z162" s="29"/>
+      <c r="AA162" s="29"/>
+      <c r="AB162" s="29"/>
+      <c r="AC162" s="29"/>
+      <c r="AD162" s="29"/>
+      <c r="AE162" s="29"/>
+    </row>
+    <row r="163" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B163" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="71">
+        <f>C160-C162</f>
+        <v>-29073.678010384159</v>
+      </c>
+      <c r="D163" s="71"/>
+      <c r="E163" s="10">
+        <f>100-E162</f>
+        <v>-25.632214375289223</v>
+      </c>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+      <c r="R163" s="29"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="29"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="29"/>
+      <c r="W163" s="29"/>
+      <c r="X163" s="29"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="29"/>
+      <c r="AA163" s="29"/>
+      <c r="AB163" s="29"/>
+      <c r="AC163" s="29"/>
+      <c r="AD163" s="29"/>
+      <c r="AE163" s="29"/>
+    </row>
+    <row r="164" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B164" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" s="65">
+        <f>C161*0.03</f>
+        <v>4500</v>
+      </c>
+      <c r="D164" s="66"/>
+      <c r="E164" s="10">
+        <v>3</v>
+      </c>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+      <c r="R164" s="29"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="29"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="29"/>
+      <c r="W164" s="29"/>
+      <c r="X164" s="29"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="29"/>
+      <c r="AA164" s="29"/>
+      <c r="AB164" s="29"/>
+      <c r="AC164" s="29"/>
+      <c r="AD164" s="29"/>
+      <c r="AE164" s="29"/>
+    </row>
+    <row r="165" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B165" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="65">
+        <f>C161*0.02</f>
+        <v>3000</v>
+      </c>
+      <c r="D165" s="66"/>
+      <c r="E165" s="10">
+        <v>2</v>
+      </c>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="29"/>
+      <c r="Q165" s="29"/>
+      <c r="R165" s="29"/>
+      <c r="S165" s="29"/>
+      <c r="T165" s="29"/>
+      <c r="U165" s="29"/>
+      <c r="V165" s="29"/>
+      <c r="W165" s="29"/>
+      <c r="X165" s="29"/>
+      <c r="Y165" s="29"/>
+      <c r="Z165" s="29"/>
+      <c r="AA165" s="29"/>
+      <c r="AB165" s="29"/>
+      <c r="AC165" s="29"/>
+      <c r="AD165" s="29"/>
+      <c r="AE165" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C163:D163"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:
+Kristal Suwal&amp;CChecked By:
+Er. Milan Phuyal&amp;RApproved By:    
+Er. Prakash Singh Saud</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE170"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="24"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="24"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" ref="D12:D13" si="0">14.083/3.281</f>
+        <v>4.2922889362999088</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="24">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G12" s="55">
+        <f>PRODUCT(C12:F12)</f>
+        <v>1.5044597003184688</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="24"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="22">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>4.2922889362999088</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="24">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G13" s="55">
+        <f t="shared" ref="G13:G19" si="1">PRODUCT(C13:F13)</f>
+        <v>1.0248641123734679</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="24"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <f>14.083/3.281</f>
+        <v>4.2922889362999088</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="24">
+        <f>F13+F12</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="1"/>
+        <v>0.83948851277770542</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="24"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23">
+        <f>45.42/3.281</f>
+        <v>13.843340444986284</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F15" s="24">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="G15" s="55">
+        <f t="shared" si="1"/>
+        <v>4.8521309087882436</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="24"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="22">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23">
+        <f>45.42/3.281</f>
+        <v>13.843340444986284</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="24">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G16" s="55">
+        <f t="shared" si="1"/>
+        <v>3.3053559599519216</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="24"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="22">
+        <v>6</v>
+      </c>
+      <c r="D17" s="23">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E17" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F17" s="24">
+        <f>F14</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G17" s="55">
+        <f t="shared" si="1"/>
+        <v>0.53567299243304567</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="24"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="22">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23">
+        <f>1.917/3.281</f>
+        <v>0.58427308747333129</v>
+      </c>
+      <c r="E18" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F18" s="24">
+        <f>F14</f>
+        <v>1.955806156659555</v>
+      </c>
+      <c r="G18" s="55">
+        <f t="shared" si="1"/>
+        <v>0.58511973019609598</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="24"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="22">
+        <v>-14</v>
+      </c>
+      <c r="D19" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="24">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G19" s="55">
+        <f t="shared" si="1"/>
+        <v>-1.4008829200588837</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="24"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="24"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D21" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F21" s="24">
+        <f>(6.5/3.281)-F22</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="G21" s="55">
+        <f t="shared" ref="G21:G22" si="2">PRODUCT(C21:F21)</f>
+        <v>-0.30353059337604665</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="24"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D22" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="24">
+        <f>F13</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G22" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.20012613143698338</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="24"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="24"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23">
+        <f t="shared" ref="D24:D25" si="3">13.667/3.281</f>
+        <v>4.1654983236818044</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F24" s="24">
+        <f>3.75/3.281</f>
+        <v>1.1429442243218531</v>
+      </c>
+      <c r="G24" s="55">
+        <f>PRODUCT(C24:F24)</f>
+        <v>2.1900288352182602</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="24"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="22">
+        <v>2</v>
+      </c>
+      <c r="D25" s="23">
+        <f t="shared" si="3"/>
+        <v>4.1654983236818044</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="24">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="G25" s="55">
+        <f t="shared" ref="G25:G33" si="4">PRODUCT(C25:F25)</f>
+        <v>0.69827006340292364</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="24"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="23">
+        <f>13.667/3.281</f>
+        <v>4.1654983236818044</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="24">
+        <f>F25+F24</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G26" s="55">
+        <f t="shared" si="4"/>
+        <v>0.82522825674890976</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="24"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2</v>
+      </c>
+      <c r="D27" s="23">
+        <f>44.917/3.281</f>
+        <v>13.690033526363914</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F27" s="24">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="G27" s="55">
+        <f t="shared" si="4"/>
+        <v>7.6774342238676008</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="24"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="22">
+        <v>2</v>
+      </c>
+      <c r="D28" s="23">
+        <f>44.917/3.281</f>
+        <v>13.690033526363914</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="24">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="G28" s="55">
+        <f t="shared" si="4"/>
+        <v>2.2948852299604243</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="24"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="22">
+        <v>6</v>
+      </c>
+      <c r="D29" s="23">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E29" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F29" s="24">
+        <f>F26</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G29" s="55">
+        <f t="shared" si="4"/>
+        <v>0.54260159744659442</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="24"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="22">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23">
+        <f>1.917/3.281</f>
+        <v>0.58427308747333129</v>
+      </c>
+      <c r="E30" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F30" s="24">
+        <f>F26</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G30" s="55">
+        <f t="shared" si="4"/>
+        <v>0.59268789874935701</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="24"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="22">
+        <v>-14</v>
+      </c>
+      <c r="D31" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="24">
+        <f>3.917/3.281</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G31" s="55">
+        <f t="shared" si="4"/>
+        <v>-1.4008829200588837</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="24"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F32" s="24">
+        <f>(6.25/3.281)-F33</f>
+        <v>0.71106370009143549</v>
+      </c>
+      <c r="G32" s="55">
+        <f t="shared" si="4"/>
+        <v>-0.27415287431138857</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="24"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D33" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="24">
+        <f>F31</f>
+        <v>1.1938433404449862</v>
+      </c>
+      <c r="G33" s="55">
+        <f t="shared" si="4"/>
+        <v>-0.20012613143698338</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="24"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="22">
+        <v>2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F35" s="24">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="G35" s="55">
+        <f>PRODUCT(C35:F35)</f>
+        <v>1.9795001523925628</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="24"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="22">
+        <v>2</v>
+      </c>
+      <c r="D36" s="23">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="24">
+        <f>4.75/3.281</f>
+        <v>1.4477293508076805</v>
+      </c>
+      <c r="G36" s="55">
+        <f t="shared" ref="G36:G70" si="5">PRODUCT(C36:F36)</f>
+        <v>1.1680280402316365</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="24"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="22">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="24">
+        <f>F36+F35</f>
+        <v>2.5144772935080768</v>
+      </c>
+      <c r="G37" s="55">
+        <f t="shared" si="5"/>
+        <v>1.0090597378847912</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="24"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="22">
+        <v>2</v>
+      </c>
+      <c r="D38" s="23">
+        <v>14.147</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F38" s="24">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="G38" s="55">
+        <f t="shared" si="5"/>
+        <v>6.9419902468759513</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="24"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="22">
+        <v>2</v>
+      </c>
+      <c r="D39" s="23">
+        <v>14.147</v>
+      </c>
+      <c r="E39" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="24">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G39" s="55">
+        <f t="shared" si="5"/>
+        <v>4.9585644620542517</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="24"/>
+      <c r="N39" s="41">
+        <f>1.76+3.5/3.281</f>
+        <v>2.8267479427003961</v>
+      </c>
+      <c r="O39" s="34">
+        <f>(5.75+3.5)/3.281</f>
+        <v>2.8192624199939043</v>
+      </c>
+      <c r="P39" s="34"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="22">
+        <f>-3*2</f>
+        <v>-6</v>
+      </c>
+      <c r="D40" s="23">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.70230000000000015</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="24"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="34">
+        <f>3000*4*6000</f>
+        <v>72000000</v>
+      </c>
+      <c r="P40" s="34"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="22">
+        <f>-1*2</f>
+        <v>-2</v>
+      </c>
+      <c r="D41" s="23">
+        <v>2.375</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.23750000000000002</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="24"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="22">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="E42" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F42" s="24">
+        <f>F39+F38</f>
+        <v>2.8192624199939038</v>
+      </c>
+      <c r="G42" s="55">
+        <f t="shared" si="5"/>
+        <v>0.77216381175092275</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="24"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="22">
+        <v>4</v>
+      </c>
+      <c r="D43" s="23">
+        <f>1.917/3.281</f>
+        <v>0.58427308747333129</v>
+      </c>
+      <c r="E43" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="F43" s="24">
+        <f>F38+F39</f>
+        <v>2.8192624199939038</v>
+      </c>
+      <c r="G43" s="55">
+        <f t="shared" si="5"/>
+        <v>0.84344047129716171</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="24"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="22">
+        <v>-10</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="55">
+        <f t="shared" si="5"/>
+        <v>-1.0055999999999998</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="24"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D45" s="23">
+        <v>2.375</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.57000000000000006</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="24"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D46" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F46" s="24">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="G46" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.41128806690521219</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="24"/>
+      <c r="N46" s="29">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D47" s="23">
+        <f>2.75/3.281</f>
+        <v>0.8381590978360256</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="24">
+        <f>F44</f>
+        <v>1.2</v>
+      </c>
+      <c r="G47" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.20115818348064615</v>
+      </c>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="24"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="22">
+        <v>2</v>
+      </c>
+      <c r="D49" s="23">
+        <v>2.64</v>
+      </c>
+      <c r="E49" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F49" s="24">
+        <f>((6.75+8)/2)/3.281</f>
+        <v>2.2477903078329775</v>
+      </c>
+      <c r="G49" s="55">
+        <f t="shared" si="5"/>
+        <v>1.1868332825358121</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="24"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+      <c r="D50" s="23">
+        <f>6.4-0.23</f>
+        <v>6.17</v>
+      </c>
+      <c r="E50" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F50" s="24">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G50" s="55">
+        <f t="shared" si="5"/>
+        <v>2.9195138677232548</v>
+      </c>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="24"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="22">
+        <v>1</v>
+      </c>
+      <c r="D51" s="23">
+        <f>8/3.281</f>
+        <v>2.4382810118866196</v>
+      </c>
+      <c r="E51" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F51" s="24">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G51" s="55">
+        <f t="shared" si="5"/>
+        <v>1.1537431487211145</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="22">
+        <v>1</v>
+      </c>
+      <c r="D52" s="23">
+        <f>(6.4-1.75/3.281)</f>
+        <v>5.8666260286498026</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G52" s="55">
+        <f t="shared" si="5"/>
+        <v>0.31034451691557458</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E53" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F53" s="24">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G53" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.3224626638220055</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D54" s="23">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F54" s="24">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G54" s="55">
+        <f t="shared" si="5"/>
+        <v>-7.4993304666872457E-2</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="22">
+        <v>-4</v>
+      </c>
+      <c r="D55" s="23">
+        <f>1.5/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F55" s="24">
+        <f>1.17/3.281</f>
+        <v>0.35659859798841814</v>
+      </c>
+      <c r="G55" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.14998660933374491</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="22">
+        <v>1</v>
+      </c>
+      <c r="D57" s="23">
+        <v>2.63</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="24">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
+      <c r="G57" s="55">
+        <f t="shared" si="5"/>
+        <v>0.58114903992685163</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="22">
+        <v>1</v>
+      </c>
+      <c r="D58" s="23">
+        <f>6.4-0.23-2.63</f>
+        <v>3.54</v>
+      </c>
+      <c r="E58" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F58" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="G58" s="55">
+        <f t="shared" si="5"/>
+        <v>0.1042255409935995</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="22">
+        <v>3</v>
+      </c>
+      <c r="D59" s="23">
+        <v>1</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F59" s="24">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
+      <c r="G59" s="55">
+        <f t="shared" si="5"/>
+        <v>0.66290765010667485</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D60" s="23">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="24">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="G60" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.25545842664920015</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="22">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23">
+        <v>2</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F61" s="24">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G61" s="55">
+        <f t="shared" si="5"/>
+        <v>0.94635781773849437</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D62" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F62" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="G62" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.64584000000000008</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="22">
+        <v>1</v>
+      </c>
+      <c r="D64" s="23">
+        <v>2.11</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F64" s="24">
+        <f>6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G64" s="55">
+        <f t="shared" si="5"/>
+        <v>0.99840749771411152</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="24"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="22">
+        <v>1</v>
+      </c>
+      <c r="D65" s="23">
+        <v>2.11</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="24">
+        <f t="shared" ref="F65:F66" si="6">6.75/3.281</f>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G65" s="55">
+        <f t="shared" si="5"/>
+        <v>0.43409021639743978</v>
+      </c>
+      <c r="H65" s="25"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="24"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="21"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="22">
+        <v>2</v>
+      </c>
+      <c r="D66" s="23">
+        <v>1.68</v>
+      </c>
+      <c r="E66" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F66" s="24">
+        <f t="shared" si="6"/>
+        <v>2.0572996037793354</v>
+      </c>
+      <c r="G66" s="55">
+        <f t="shared" si="5"/>
+        <v>0.69125266686985676</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="22">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F67" s="24">
+        <f>6/3.281</f>
+        <v>1.8287107589149649</v>
+      </c>
+      <c r="G67" s="55">
+        <f t="shared" si="5"/>
+        <v>-0.32807071014934469</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="22">
+        <v>-2</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0.45</v>
+      </c>
+      <c r="E68" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F68" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="G68" s="55">
+        <f t="shared" si="5"/>
+        <v>-2.7000000000000003E-2</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="22">
+        <v>1</v>
+      </c>
+      <c r="D69" s="23">
+        <f>5.25/3.281</f>
+        <v>1.6001219140505942</v>
+      </c>
+      <c r="E69" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F69" s="24">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="G69" s="55">
+        <f t="shared" si="5"/>
+        <v>0.28973374822258996</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="24"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="22">
+        <v>1</v>
+      </c>
+      <c r="D70" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="E70" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="24">
+        <f>0.42/3.281</f>
+        <v>0.12800975312404753</v>
+      </c>
+      <c r="G70" s="55">
+        <f t="shared" si="5"/>
+        <v>1.2288936299908564E-2</v>
+      </c>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="21"/>
+      <c r="B71" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="60">
+        <f>SUM(G12:G70)</f>
+        <v>46.720463339199377</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="26">
+        <v>1950.4</v>
+      </c>
+      <c r="J71" s="7">
+        <f>G71*I71</f>
+        <v>91123.591696774471</v>
+      </c>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:17" ht="60" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <v>2</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="38" t="str">
+        <f>B11</f>
+        <v>-Block 1</v>
+      </c>
+      <c r="C74" s="22">
+        <v>2</v>
+      </c>
+      <c r="D74" s="23">
+        <v>14.097</v>
+      </c>
+      <c r="E74" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="55">
+        <f t="shared" ref="G74:G83" si="7">PRODUCT(C74:F74)</f>
+        <v>90.220799999999997</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="24"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="34"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="22">
+        <v>2</v>
+      </c>
+      <c r="D75" s="23">
+        <v>5</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G75" s="55">
+        <f t="shared" si="7"/>
+        <v>4.0600000000000005</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="24"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="21"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="22">
+        <v>2</v>
+      </c>
+      <c r="D76" s="23">
+        <f>D75/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G76" s="55">
+        <f>C76*0.5*D76*F76</f>
+        <v>2.4125000000000001</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="24"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="21"/>
+      <c r="B77" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="22">
+        <v>2</v>
+      </c>
+      <c r="D77" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G77" s="55">
+        <f>C77*0.5*D77*F77</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="24"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="34"/>
+      <c r="Q77" s="34"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="38" t="str">
+        <f>B23</f>
+        <v>-Block 2</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2</v>
+      </c>
+      <c r="D78" s="23">
+        <v>13.945</v>
+      </c>
+      <c r="E78" s="24">
+        <v>3.15</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="55">
+        <f t="shared" si="7"/>
+        <v>87.853499999999997</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="24"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="22">
+        <v>2</v>
+      </c>
+      <c r="D79" s="23">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G79" s="55">
+        <f t="shared" si="7"/>
+        <v>3.671052</v>
+      </c>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="24"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="22">
+        <v>2</v>
+      </c>
+      <c r="D80" s="23">
+        <f>D79/2</f>
+        <v>2.2605</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G80" s="55">
+        <f>C80*0.5*D80*F80</f>
+        <v>2.2401554999999997</v>
+      </c>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="24"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="22">
+        <v>2</v>
+      </c>
+      <c r="D81" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G81" s="55">
+        <f>C81*0.5*D81*F81</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="24"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="38" t="str">
+        <f>B34</f>
+        <v>-Block 3</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2</v>
+      </c>
+      <c r="D82" s="23">
+        <v>14.401</v>
+      </c>
+      <c r="E82" s="24">
+        <v>3.35</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="55">
+        <f t="shared" si="7"/>
+        <v>96.486699999999999</v>
+      </c>
+      <c r="H82" s="25"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="24"/>
+      <c r="N82" s="33">
+        <f>2.6*3.281</f>
+        <v>8.5306000000000015</v>
+      </c>
+      <c r="O82" s="29">
+        <f>N82-1.5</f>
+        <v>7.0306000000000015</v>
+      </c>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="21"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="22">
+        <v>2</v>
+      </c>
+      <c r="D83" s="23">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G83" s="55">
+        <f t="shared" si="7"/>
+        <v>2.8757679999999994</v>
+      </c>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="24"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="22">
+        <v>2</v>
+      </c>
+      <c r="D84" s="23">
+        <f>D83/2</f>
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G84" s="55">
+        <f>C84*0.5*D84*F84</f>
+        <v>1.744848</v>
+      </c>
+      <c r="H84" s="25"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="24"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="34"/>
+      <c r="Q84" s="34"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="21"/>
+      <c r="B85" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2</v>
+      </c>
+      <c r="D85" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="G85" s="55">
+        <f>C85*0.5*D85*F85</f>
+        <v>1.664126790612618</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="24"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="B86" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="24"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="34"/>
+      <c r="Q86" s="34"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="21"/>
+      <c r="B87" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="22">
+        <v>1</v>
+      </c>
+      <c r="D87" s="23">
+        <v>6.4</v>
+      </c>
+      <c r="E87" s="24">
+        <f>11.25/3.281</f>
+        <v>3.4288326729655592</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="55">
+        <f t="shared" ref="G87" si="8">PRODUCT(C87:F87)</f>
+        <v>21.94452910697958</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="24"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="21"/>
+      <c r="B88" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="22">
+        <v>1</v>
+      </c>
+      <c r="D88" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24">
+        <f>5.75/3.281</f>
+        <v>1.752514477293508</v>
+      </c>
+      <c r="G88" s="55">
+        <f>C88*0.5*D88*F88</f>
+        <v>0.70100579091740323</v>
+      </c>
+      <c r="H88" s="25"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="24"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="21"/>
+      <c r="B89" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="60">
+        <f>SUM(G74:G88)</f>
+        <v>319.20323876973481</v>
+      </c>
+      <c r="H89" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" s="26">
+        <v>69.87</v>
+      </c>
+      <c r="J89" s="7">
+        <f>G89*I89</f>
+        <v>22302.730292841374</v>
+      </c>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="21"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="1:17" ht="30" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <v>3</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="24"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="39" t="s">
         <v>43</v>
@@ -3874,8 +8266,8 @@
       <c r="F92" s="6">
         <v>0.05</v>
       </c>
-      <c r="G92" s="67">
-        <f t="shared" ref="G92:G94" si="12">PRODUCT(C92:F92)</f>
+      <c r="G92" s="55">
+        <f t="shared" ref="G92:G94" si="9">PRODUCT(C92:F92)</f>
         <v>0.162552067459108</v>
       </c>
       <c r="H92" s="7"/>
@@ -3892,7 +8284,7 @@
         <v>6.285026666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="39" t="s">
         <v>57</v>
@@ -3911,8 +8303,8 @@
       <c r="F93" s="6">
         <v>0.1</v>
       </c>
-      <c r="G93" s="67">
-        <f t="shared" si="12"/>
+      <c r="G93" s="55">
+        <f t="shared" si="9"/>
         <v>0.48815999999999993</v>
       </c>
       <c r="H93" s="7"/>
@@ -3921,7 +8313,7 @@
       <c r="K93" s="4"/>
       <c r="M93" s="29"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="39" t="s">
         <v>58</v>
@@ -3940,8 +8332,8 @@
       <c r="F94" s="6">
         <v>0.05</v>
       </c>
-      <c r="G94" s="67">
-        <f t="shared" si="12"/>
+      <c r="G94" s="55">
+        <f t="shared" si="9"/>
         <v>0.15675857998928189</v>
       </c>
       <c r="H94" s="7"/>
@@ -3950,7 +8342,7 @@
       <c r="K94" s="4"/>
       <c r="M94" s="29"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="39" t="s">
         <v>36</v>
@@ -3959,7 +8351,7 @@
       <c r="D95" s="23"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
-      <c r="G95" s="72">
+      <c r="G95" s="60">
         <f>SUM(G92:G94)</f>
         <v>0.80747064744838981</v>
       </c>
@@ -3975,20 +8367,20 @@
       </c>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="39"/>
       <c r="C96" s="22"/>
       <c r="D96" s="23"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
-      <c r="G96" s="67"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="25"/>
       <c r="I96" s="26"/>
       <c r="J96" s="7"/>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>4</v>
       </c>
@@ -4013,7 +8405,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="38" t="s">
         <v>38</v>
@@ -4022,13 +8414,13 @@
       <c r="D98" s="23"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
-      <c r="G98" s="67"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="25"/>
       <c r="I98" s="26"/>
       <c r="J98" s="7"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="39" t="s">
         <v>64</v>
@@ -4037,14 +8429,14 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="67"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="4"/>
       <c r="M99" s="29"/>
     </row>
-    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="39" t="s">
         <v>67</v>
@@ -4064,7 +8456,7 @@
         <f>PRODUCT(C100:E100)</f>
         <v>78.725998171289234</v>
       </c>
-      <c r="G100" s="67">
+      <c r="G100" s="55">
         <f>F100/1000</f>
         <v>7.8725998171289238E-2</v>
       </c>
@@ -4074,7 +8466,7 @@
       <c r="K100" s="4"/>
       <c r="M100" s="29"/>
     </row>
-    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="39" t="s">
         <v>65</v>
@@ -4091,11 +8483,11 @@
         <v>1.92</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" ref="F101:F103" si="13">PRODUCT(C101:E101)</f>
+        <f t="shared" ref="F101:F108" si="10">PRODUCT(C101:E101)</f>
         <v>23.407497714111546</v>
       </c>
-      <c r="G101" s="67">
-        <f t="shared" ref="G101:G149" si="14">F101/1000</f>
+      <c r="G101" s="55">
+        <f t="shared" ref="G101:G149" si="11">F101/1000</f>
         <v>2.3407497714111547E-2</v>
       </c>
       <c r="H101" s="7"/>
@@ -4104,7 +8496,7 @@
       <c r="K101" s="4"/>
       <c r="M101" s="29"/>
     </row>
-    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="39" t="s">
         <v>66</v>
@@ -4121,11 +8513,11 @@
         <v>1.5</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>6.8576653459311183</v>
       </c>
-      <c r="G102" s="67">
-        <f t="shared" si="14"/>
+      <c r="G102" s="55">
+        <f t="shared" si="11"/>
         <v>6.8576653459311186E-3</v>
       </c>
       <c r="H102" s="7"/>
@@ -4134,7 +8526,7 @@
       <c r="K102" s="47"/>
       <c r="M102" s="29"/>
     </row>
-    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="39" t="s">
         <v>68</v>
@@ -4150,11 +8542,11 @@
         <v>2.46</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>116.727</v>
       </c>
-      <c r="G103" s="67">
-        <f t="shared" si="14"/>
+      <c r="G103" s="55">
+        <f t="shared" si="11"/>
         <v>0.116727</v>
       </c>
       <c r="H103" s="7"/>
@@ -4163,7 +8555,7 @@
       <c r="K103" s="47"/>
       <c r="M103" s="29"/>
     </row>
-    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="39" t="s">
         <v>69</v>
@@ -4178,11 +8570,11 @@
         <v>1.92</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" ref="F104:F108" si="15">PRODUCT(C104:E104)</f>
+        <f t="shared" si="10"/>
         <v>54.324480000000001</v>
       </c>
-      <c r="G104" s="67">
-        <f t="shared" si="14"/>
+      <c r="G104" s="55">
+        <f t="shared" si="11"/>
         <v>5.4324480000000001E-2</v>
       </c>
       <c r="H104" s="7"/>
@@ -4191,7 +8583,7 @@
       <c r="K104" s="4"/>
       <c r="M104" s="29"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="39" t="s">
         <v>70</v>
@@ -4206,11 +8598,11 @@
         <v>3.56</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>410.11200000000002</v>
       </c>
-      <c r="G105" s="67">
-        <f t="shared" si="14"/>
+      <c r="G105" s="55">
+        <f t="shared" si="11"/>
         <v>0.41011200000000003</v>
       </c>
       <c r="H105" s="7"/>
@@ -4223,7 +8615,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="39" t="s">
         <v>71</v>
@@ -4232,14 +8624,14 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="67"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="47"/>
       <c r="M106" s="29"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="39" t="s">
         <v>72</v>
@@ -4256,11 +8648,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>29.555555555555554</v>
       </c>
-      <c r="G107" s="67">
-        <f t="shared" si="14"/>
+      <c r="G107" s="55">
+        <f t="shared" si="11"/>
         <v>2.9555555555555554E-2</v>
       </c>
       <c r="H107" s="7"/>
@@ -4269,7 +8661,7 @@
       <c r="K107" s="47"/>
       <c r="M107" s="29"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="39" t="s">
         <v>73</v>
@@ -4286,11 +8678,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>19.199999999999996</v>
       </c>
-      <c r="G108" s="67">
-        <f t="shared" si="14"/>
+      <c r="G108" s="55">
+        <f t="shared" si="11"/>
         <v>1.9199999999999995E-2</v>
       </c>
       <c r="H108" s="7"/>
@@ -4299,7 +8691,7 @@
       <c r="K108" s="47"/>
       <c r="M108" s="29"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="39" t="s">
         <v>74</v>
@@ -4308,14 +8700,14 @@
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="67"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="47"/>
       <c r="M109" s="29"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="39" t="s">
         <v>72</v>
@@ -4332,11 +8724,11 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" ref="F110:F112" si="16">PRODUCT(C110:E110)</f>
+        <f t="shared" ref="F110:F114" si="12">PRODUCT(C110:E110)</f>
         <v>15.833333333333332</v>
       </c>
-      <c r="G110" s="67">
-        <f t="shared" si="14"/>
+      <c r="G110" s="55">
+        <f t="shared" si="11"/>
         <v>1.5833333333333331E-2</v>
       </c>
       <c r="H110" s="7"/>
@@ -4345,7 +8737,7 @@
       <c r="K110" s="47"/>
       <c r="M110" s="29"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="39"/>
       <c r="C111" s="8">
@@ -4360,11 +8752,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" ref="F111" si="17">PRODUCT(C111:E111)</f>
+        <f t="shared" si="12"/>
         <v>84.444444444444443</v>
       </c>
-      <c r="G111" s="67">
-        <f t="shared" si="14"/>
+      <c r="G111" s="55">
+        <f t="shared" si="11"/>
         <v>8.4444444444444447E-2</v>
       </c>
       <c r="H111" s="7"/>
@@ -4373,7 +8765,7 @@
       <c r="K111" s="47"/>
       <c r="M111" s="29"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="39" t="s">
         <v>73</v>
@@ -4390,11 +8782,11 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>9.481481481481481</v>
       </c>
-      <c r="G112" s="67">
-        <f t="shared" si="14"/>
+      <c r="G112" s="55">
+        <f t="shared" si="11"/>
         <v>9.4814814814814814E-3</v>
       </c>
       <c r="H112" s="7"/>
@@ -4403,7 +8795,7 @@
       <c r="K112" s="47"/>
       <c r="M112" s="29"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="39"/>
       <c r="C113" s="8">
@@ -4418,11 +8810,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" ref="F113:F114" si="18">PRODUCT(C113:E113)</f>
+        <f t="shared" si="12"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="G113" s="67">
-        <f t="shared" si="14"/>
+      <c r="G113" s="55">
+        <f t="shared" si="11"/>
         <v>1.0666666666666666E-2</v>
       </c>
       <c r="H113" s="7"/>
@@ -4431,7 +8823,7 @@
       <c r="K113" s="47"/>
       <c r="M113" s="29"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="39" t="s">
         <v>75</v>
@@ -4448,11 +8840,11 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>12.389135802469134</v>
       </c>
-      <c r="G114" s="67">
-        <f t="shared" si="14"/>
+      <c r="G114" s="55">
+        <f t="shared" si="11"/>
         <v>1.2389135802469134E-2</v>
       </c>
       <c r="H114" s="7"/>
@@ -4461,7 +8853,7 @@
       <c r="K114" s="47"/>
       <c r="M114" s="29"/>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="39" t="s">
         <v>76</v>
@@ -4470,14 +8862,14 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="67"/>
+      <c r="G115" s="55"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="47"/>
       <c r="M115" s="29"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="39" t="s">
         <v>78</v>
@@ -4493,11 +8885,11 @@
         <v>2.1</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" ref="F116" si="19">PRODUCT(C116:E116)</f>
+        <f t="shared" ref="F116:F117" si="13">PRODUCT(C116:E116)</f>
         <v>70.56</v>
       </c>
-      <c r="G116" s="67">
-        <f t="shared" si="14"/>
+      <c r="G116" s="55">
+        <f t="shared" si="11"/>
         <v>7.0559999999999998E-2</v>
       </c>
       <c r="H116" s="7"/>
@@ -4506,7 +8898,7 @@
       <c r="K116" s="47"/>
       <c r="M116" s="29"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="39" t="s">
         <v>77</v>
@@ -4522,11 +8914,11 @@
         <v>2.1</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" ref="F117" si="20">PRODUCT(C117:E117)</f>
+        <f t="shared" si="13"/>
         <v>49.2744</v>
       </c>
-      <c r="G117" s="67">
-        <f t="shared" si="14"/>
+      <c r="G117" s="55">
+        <f t="shared" si="11"/>
         <v>4.9274400000000003E-2</v>
       </c>
       <c r="H117" s="7"/>
@@ -4535,7 +8927,7 @@
       <c r="K117" s="47"/>
       <c r="M117" s="29"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="39" t="s">
         <v>92</v>
@@ -4544,14 +8936,14 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="67"/>
+      <c r="G118" s="55"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="47"/>
       <c r="M118" s="29"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="39" t="s">
         <v>78</v>
@@ -4568,11 +8960,11 @@
         <v>2.1</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" ref="F119:F120" si="21">PRODUCT(C119:E119)</f>
+        <f t="shared" ref="F119:F120" si="14">PRODUCT(C119:E119)</f>
         <v>19.040682718683328</v>
       </c>
-      <c r="G119" s="67">
-        <f t="shared" si="14"/>
+      <c r="G119" s="55">
+        <f t="shared" si="11"/>
         <v>1.9040682718683328E-2</v>
       </c>
       <c r="H119" s="7"/>
@@ -4581,7 +8973,7 @@
       <c r="K119" s="47"/>
       <c r="M119" s="29"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="39" t="s">
         <v>77</v>
@@ -4597,11 +8989,11 @@
         <v>2.1</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>7.0392000000000001</v>
       </c>
-      <c r="G120" s="67">
-        <f t="shared" si="14"/>
+      <c r="G120" s="55">
+        <f t="shared" si="11"/>
         <v>7.0391999999999998E-3</v>
       </c>
       <c r="H120" s="7"/>
@@ -4610,7 +9002,7 @@
       <c r="K120" s="47"/>
       <c r="M120" s="29"/>
     </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="39" t="s">
         <v>79</v>
@@ -4619,14 +9011,14 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="67"/>
+      <c r="G121" s="55"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="47"/>
       <c r="M121" s="29"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="39" t="s">
         <v>78</v>
@@ -4642,11 +9034,11 @@
         <v>2.1</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" ref="F122:F123" si="22">PRODUCT(C122:E122)</f>
+        <f t="shared" ref="F122:F127" si="15">PRODUCT(C122:E122)</f>
         <v>32.927999999999997</v>
       </c>
-      <c r="G122" s="67">
-        <f t="shared" si="14"/>
+      <c r="G122" s="55">
+        <f t="shared" si="11"/>
         <v>3.2927999999999999E-2</v>
       </c>
       <c r="H122" s="7"/>
@@ -4655,7 +9047,7 @@
       <c r="K122" s="47"/>
       <c r="M122" s="29"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="39" t="s">
         <v>77</v>
@@ -4671,11 +9063,11 @@
         <v>2.1</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>19.975200000000001</v>
       </c>
-      <c r="G123" s="67">
-        <f t="shared" si="14"/>
+      <c r="G123" s="55">
+        <f t="shared" si="11"/>
         <v>1.9975200000000002E-2</v>
       </c>
       <c r="H123" s="7"/>
@@ -4684,11 +9076,11 @@
       <c r="K123" s="47"/>
       <c r="M123" s="29"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="39"/>
       <c r="C124" s="8">
-        <f t="shared" ref="C124:C126" si="23">2*2</f>
+        <f t="shared" ref="C124:C126" si="16">2*2</f>
         <v>4</v>
       </c>
       <c r="D124" s="6">
@@ -4698,11 +9090,11 @@
         <v>2.1</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" ref="F124:F127" si="24">PRODUCT(C124:E124)</f>
+        <f t="shared" si="15"/>
         <v>19.664400000000004</v>
       </c>
-      <c r="G124" s="67">
-        <f t="shared" si="14"/>
+      <c r="G124" s="55">
+        <f t="shared" si="11"/>
         <v>1.9664400000000005E-2</v>
       </c>
       <c r="H124" s="7"/>
@@ -4711,11 +9103,11 @@
       <c r="K124" s="47"/>
       <c r="M124" s="29"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="39"/>
       <c r="C125" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="D125" s="6">
@@ -4725,11 +9117,11 @@
         <v>2.1</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>19.630800000000001</v>
       </c>
-      <c r="G125" s="67">
-        <f t="shared" si="14"/>
+      <c r="G125" s="55">
+        <f t="shared" si="11"/>
         <v>1.96308E-2</v>
       </c>
       <c r="H125" s="7"/>
@@ -4738,11 +9130,11 @@
       <c r="K125" s="47"/>
       <c r="M125" s="29"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="39"/>
       <c r="C126" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="D126" s="6">
@@ -4752,11 +9144,11 @@
         <v>2.1</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>19.706400000000002</v>
       </c>
-      <c r="G126" s="67">
-        <f t="shared" si="14"/>
+      <c r="G126" s="55">
+        <f t="shared" si="11"/>
         <v>1.9706400000000002E-2</v>
       </c>
       <c r="H126" s="7"/>
@@ -4765,7 +9157,7 @@
       <c r="K126" s="47"/>
       <c r="M126" s="29"/>
     </row>
-    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="39" t="s">
         <v>91</v>
@@ -4780,11 +9172,11 @@
         <v>4.18</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="15"/>
         <v>60.192</v>
       </c>
-      <c r="G127" s="67">
-        <f t="shared" si="14"/>
+      <c r="G127" s="55">
+        <f t="shared" si="11"/>
         <v>6.0192000000000002E-2</v>
       </c>
       <c r="H127" s="7"/>
@@ -4793,7 +9185,7 @@
       <c r="K127" s="47"/>
       <c r="M127" s="29"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="38" t="s">
         <v>80</v>
@@ -4802,14 +9194,14 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="67"/>
+      <c r="G128" s="55"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="47"/>
       <c r="M128" s="29"/>
     </row>
-    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="39" t="s">
         <v>76</v>
@@ -4818,14 +9210,14 @@
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="67"/>
+      <c r="G129" s="55"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="47"/>
       <c r="M129" s="29"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="39" t="s">
         <v>78</v>
@@ -4841,11 +9233,11 @@
         <v>2.1</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" ref="F130:F131" si="25">PRODUCT(C130:E130)</f>
+        <f t="shared" ref="F130:F131" si="17">PRODUCT(C130:E130)</f>
         <v>70.56</v>
       </c>
-      <c r="G130" s="67">
-        <f t="shared" si="14"/>
+      <c r="G130" s="55">
+        <f t="shared" si="11"/>
         <v>7.0559999999999998E-2</v>
       </c>
       <c r="H130" s="7"/>
@@ -4854,7 +9246,7 @@
       <c r="K130" s="47"/>
       <c r="M130" s="29"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="39" t="s">
         <v>77</v>
@@ -4870,11 +9262,11 @@
         <v>2.1</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>49.2744</v>
       </c>
-      <c r="G131" s="67">
-        <f t="shared" si="14"/>
+      <c r="G131" s="55">
+        <f t="shared" si="11"/>
         <v>4.9274400000000003E-2</v>
       </c>
       <c r="H131" s="7"/>
@@ -4883,7 +9275,7 @@
       <c r="K131" s="47"/>
       <c r="M131" s="29"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="39" t="s">
         <v>92</v>
@@ -4892,14 +9284,14 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="67"/>
+      <c r="G132" s="55"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="47"/>
       <c r="M132" s="29"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="39" t="s">
         <v>78</v>
@@ -4916,11 +9308,11 @@
         <v>2.1</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" ref="F133:F134" si="26">PRODUCT(C133:E133)</f>
+        <f t="shared" ref="F133:F134" si="18">PRODUCT(C133:E133)</f>
         <v>16.641267906126181</v>
       </c>
-      <c r="G133" s="67">
-        <f t="shared" si="14"/>
+      <c r="G133" s="55">
+        <f t="shared" si="11"/>
         <v>1.6641267906126182E-2</v>
       </c>
       <c r="H133" s="7"/>
@@ -4929,7 +9321,7 @@
       <c r="K133" s="47"/>
       <c r="M133" s="29"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="39" t="s">
         <v>77</v>
@@ -4945,11 +9337,11 @@
         <v>2.1</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>7.0392000000000001</v>
       </c>
-      <c r="G134" s="67">
-        <f t="shared" si="14"/>
+      <c r="G134" s="55">
+        <f t="shared" si="11"/>
         <v>7.0391999999999998E-3</v>
       </c>
       <c r="H134" s="7"/>
@@ -4958,7 +9350,7 @@
       <c r="K134" s="47"/>
       <c r="M134" s="29"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="39" t="s">
         <v>81</v>
@@ -4967,14 +9359,14 @@
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="67"/>
+      <c r="G135" s="55"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="47"/>
       <c r="M135" s="29"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="39" t="s">
         <v>72</v>
@@ -4991,11 +9383,11 @@
         <v>0.30246913580246915</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" ref="F136:F137" si="27">PRODUCT(C136:E136)</f>
+        <f t="shared" ref="F136:F137" si="19">PRODUCT(C136:E136)</f>
         <v>21.291407407407409</v>
       </c>
-      <c r="G136" s="67">
-        <f t="shared" si="14"/>
+      <c r="G136" s="55">
+        <f t="shared" si="11"/>
         <v>2.1291407407407408E-2</v>
       </c>
       <c r="H136" s="7"/>
@@ -5004,7 +9396,7 @@
       <c r="K136" s="47"/>
       <c r="M136" s="29"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="39" t="s">
         <v>73</v>
@@ -5021,11 +9413,11 @@
         <v>0.61728395061728392</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>51.851851851851848</v>
       </c>
-      <c r="G137" s="67">
-        <f t="shared" si="14"/>
+      <c r="G137" s="55">
+        <f t="shared" si="11"/>
         <v>5.185185185185185E-2</v>
       </c>
       <c r="H137" s="7"/>
@@ -5034,7 +9426,7 @@
       <c r="K137" s="47"/>
       <c r="M137" s="29"/>
     </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="39" t="s">
         <v>79</v>
@@ -5043,14 +9435,14 @@
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="67"/>
+      <c r="G138" s="55"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="47"/>
       <c r="M138" s="29"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="39" t="s">
         <v>78</v>
@@ -5066,11 +9458,11 @@
         <v>2.1</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" ref="F139:F140" si="28">PRODUCT(C139:E139)</f>
+        <f t="shared" ref="F139:F145" si="20">PRODUCT(C139:E139)</f>
         <v>20.16</v>
       </c>
-      <c r="G139" s="67">
-        <f t="shared" si="14"/>
+      <c r="G139" s="55">
+        <f t="shared" si="11"/>
         <v>2.0160000000000001E-2</v>
       </c>
       <c r="H139" s="7"/>
@@ -5079,7 +9471,7 @@
       <c r="K139" s="47"/>
       <c r="M139" s="29"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="39" t="s">
         <v>77</v>
@@ -5094,11 +9486,11 @@
         <v>2.1</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>56.196000000000005</v>
       </c>
-      <c r="G140" s="67">
-        <f t="shared" si="14"/>
+      <c r="G140" s="55">
+        <f t="shared" si="11"/>
         <v>5.6196000000000003E-2</v>
       </c>
       <c r="H140" s="7"/>
@@ -5107,7 +9499,7 @@
       <c r="K140" s="47"/>
       <c r="M140" s="29"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="39"/>
       <c r="C141" s="8">
@@ -5120,11 +9512,11 @@
         <v>2.1</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" ref="F141" si="29">PRODUCT(C141:E141)</f>
+        <f t="shared" si="20"/>
         <v>55.578600000000002</v>
       </c>
-      <c r="G141" s="67">
-        <f t="shared" si="14"/>
+      <c r="G141" s="55">
+        <f t="shared" si="11"/>
         <v>5.5578599999999999E-2</v>
       </c>
       <c r="H141" s="7"/>
@@ -5133,7 +9525,7 @@
       <c r="K141" s="47"/>
       <c r="M141" s="29"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="39" t="s">
         <v>83</v>
@@ -5150,11 +9542,11 @@
         <v>0.74691358024691357</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ref="F142" si="30">PRODUCT(C142:E142)</f>
+        <f t="shared" si="20"/>
         <v>17.925925925925924</v>
       </c>
-      <c r="G142" s="67">
-        <f t="shared" si="14"/>
+      <c r="G142" s="55">
+        <f t="shared" si="11"/>
         <v>1.7925925925925925E-2</v>
       </c>
       <c r="H142" s="7"/>
@@ -5163,7 +9555,7 @@
       <c r="K142" s="47"/>
       <c r="M142" s="29"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="39" t="s">
         <v>82</v>
@@ -5180,11 +9572,11 @@
         <v>0.74691358024691357</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" ref="F143:F145" si="31">PRODUCT(C143:E143)</f>
+        <f t="shared" si="20"/>
         <v>43.022222222222219</v>
       </c>
-      <c r="G143" s="67">
-        <f t="shared" si="14"/>
+      <c r="G143" s="55">
+        <f t="shared" si="11"/>
         <v>4.3022222222222219E-2</v>
       </c>
       <c r="H143" s="7"/>
@@ -5193,7 +9585,7 @@
       <c r="K143" s="47"/>
       <c r="M143" s="29"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A144" s="48"/>
       <c r="B144" s="49" t="s">
         <v>93</v>
@@ -5209,11 +9601,11 @@
         <v>4.18</v>
       </c>
       <c r="F144" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>29.259999999999998</v>
       </c>
-      <c r="G144" s="67">
-        <f t="shared" ref="G144" si="32">F144/1000</f>
+      <c r="G144" s="55">
+        <f t="shared" si="11"/>
         <v>2.9259999999999998E-2</v>
       </c>
       <c r="H144" s="27"/>
@@ -5222,7 +9614,7 @@
       <c r="K144" s="51"/>
       <c r="M144" s="12"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="48"/>
       <c r="B145" s="49" t="s">
         <v>84</v>
@@ -5239,11 +9631,11 @@
         <v>7.37</v>
       </c>
       <c r="F145" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>515.9</v>
       </c>
-      <c r="G145" s="67">
-        <f t="shared" si="14"/>
+      <c r="G145" s="55">
+        <f t="shared" si="11"/>
         <v>0.51590000000000003</v>
       </c>
       <c r="H145" s="27"/>
@@ -5254,7 +9646,7 @@
       </c>
       <c r="M145" s="12"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="48"/>
       <c r="B146" s="49" t="s">
         <v>86</v>
@@ -5263,14 +9655,14 @@
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="67"/>
+      <c r="G146" s="55"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
       <c r="J146" s="27"/>
       <c r="K146" s="51"/>
       <c r="M146" s="12"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="48"/>
       <c r="B147" s="49" t="s">
         <v>87</v>
@@ -5287,11 +9679,11 @@
         <v>7.14</v>
       </c>
       <c r="F147" s="10">
-        <f t="shared" ref="F147" si="33">PRODUCT(C147:E147)</f>
+        <f t="shared" ref="F147:F149" si="21">PRODUCT(C147:E147)</f>
         <v>435.23316062176167</v>
       </c>
-      <c r="G147" s="67">
-        <f t="shared" si="14"/>
+      <c r="G147" s="55">
+        <f t="shared" si="11"/>
         <v>0.43523316062176165</v>
       </c>
       <c r="H147" s="27"/>
@@ -5302,7 +9694,7 @@
       </c>
       <c r="M147" s="12"/>
     </row>
-    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="49" t="s">
         <v>89</v>
@@ -5319,11 +9711,11 @@
         <v>7.14</v>
       </c>
       <c r="F148" s="10">
-        <f t="shared" ref="F148" si="34">PRODUCT(C148:E148)</f>
+        <f t="shared" si="21"/>
         <v>719.022590673575</v>
       </c>
-      <c r="G148" s="67">
-        <f t="shared" si="14"/>
+      <c r="G148" s="55">
+        <f t="shared" si="11"/>
         <v>0.71902259067357499</v>
       </c>
       <c r="H148" s="7"/>
@@ -5332,7 +9724,7 @@
       <c r="K148" s="47"/>
       <c r="M148" s="29"/>
     </row>
-    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="49" t="s">
         <v>88</v>
@@ -5349,11 +9741,11 @@
         <v>4.82</v>
       </c>
       <c r="F149" s="10">
-        <f t="shared" ref="F149" si="35">PRODUCT(C149:E149)</f>
+        <f t="shared" si="21"/>
         <v>303.61152087778117</v>
       </c>
-      <c r="G149" s="67">
-        <f t="shared" si="14"/>
+      <c r="G149" s="55">
+        <f t="shared" si="11"/>
         <v>0.30361152087778115</v>
       </c>
       <c r="H149" s="7"/>
@@ -5362,7 +9754,7 @@
       <c r="K149" s="47"/>
       <c r="M149" s="29"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
       <c r="B150" s="39" t="s">
         <v>36</v>
@@ -5387,7 +9779,7 @@
       </c>
       <c r="K150" s="24"/>
     </row>
-    <row r="151" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="44"/>
       <c r="C151" s="22"/>
@@ -5400,7 +9792,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="24"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>5</v>
       </c>
@@ -5417,7 +9809,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="24"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" s="39" t="s">
         <v>49</v>
@@ -5437,8 +9829,8 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G153" s="67">
-        <f t="shared" ref="G153:G159" si="36">PRODUCT(C153:F153)</f>
+      <c r="G153" s="55">
+        <f t="shared" ref="G153:G159" si="22">PRODUCT(C153:F153)</f>
         <v>0.11678989331722038</v>
       </c>
       <c r="H153" s="25"/>
@@ -5446,7 +9838,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="24"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="39" t="s">
         <v>50</v>
@@ -5465,8 +9857,8 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G154" s="67">
-        <f t="shared" si="36"/>
+      <c r="G154" s="55">
+        <f t="shared" si="22"/>
         <v>2.4771726220528492E-2</v>
       </c>
       <c r="H154" s="7"/>
@@ -5475,7 +9867,7 @@
       <c r="K154" s="4"/>
       <c r="M154" s="29"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="39" t="s">
         <v>51</v>
@@ -5495,8 +9887,8 @@
         <f>2.5/12/3.281</f>
         <v>6.3496901351214066E-2</v>
       </c>
-      <c r="G155" s="67">
-        <f t="shared" si="36"/>
+      <c r="G155" s="55">
+        <f t="shared" si="22"/>
         <v>1.56215330030973E-2</v>
       </c>
       <c r="H155" s="7"/>
@@ -5505,7 +9897,7 @@
       <c r="K155" s="4"/>
       <c r="M155" s="29"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="39"/>
       <c r="C156" s="8">
@@ -5523,8 +9915,8 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G156" s="67">
-        <f t="shared" si="36"/>
+      <c r="G156" s="55">
+        <f t="shared" si="22"/>
         <v>3.1851789086514648E-2</v>
       </c>
       <c r="H156" s="7"/>
@@ -5533,7 +9925,7 @@
       <c r="K156" s="4"/>
       <c r="M156" s="29"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="39" t="s">
         <v>46</v>
@@ -5553,8 +9945,8 @@
         <f>3/12/3.281</f>
         <v>7.6196281621456863E-2</v>
       </c>
-      <c r="G157" s="67">
-        <f t="shared" si="36"/>
+      <c r="G157" s="55">
+        <f t="shared" si="22"/>
         <v>3.390630026434837E-2</v>
       </c>
       <c r="H157" s="7"/>
@@ -5563,19 +9955,19 @@
       <c r="K157" s="4"/>
       <c r="M157" s="29"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
-      <c r="B158" s="64" t="s">
+      <c r="B158" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C158" s="65">
+      <c r="C158" s="53">
         <v>2</v>
       </c>
-      <c r="D158" s="66">
+      <c r="D158" s="54">
         <v>0.78</v>
       </c>
-      <c r="E158" s="66"/>
-      <c r="F158" s="66">
+      <c r="E158" s="54"/>
+      <c r="F158" s="54">
         <v>1.8</v>
       </c>
       <c r="G158" s="40"/>
@@ -5585,28 +9977,28 @@
       <c r="K158" s="4"/>
       <c r="M158" s="29"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
-      <c r="B159" s="68" t="s">
+      <c r="B159" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="69">
+      <c r="C159" s="57">
         <v>1</v>
       </c>
-      <c r="D159" s="70">
+      <c r="D159" s="58">
         <f>0.78+2*(6/3.281)</f>
         <v>4.4374215178299297</v>
       </c>
-      <c r="E159" s="70">
+      <c r="E159" s="58">
         <f>3.5/12/3.281</f>
         <v>8.8895661891699687E-2</v>
       </c>
-      <c r="F159" s="70">
+      <c r="F159" s="58">
         <f>2.5/12/3.281</f>
         <v>6.3496901351214066E-2</v>
       </c>
-      <c r="G159" s="67">
-        <f t="shared" si="36"/>
+      <c r="G159" s="55">
+        <f t="shared" si="22"/>
         <v>2.504746538910662E-2</v>
       </c>
       <c r="H159" s="7"/>
@@ -5615,19 +10007,19 @@
       <c r="K159" s="4"/>
       <c r="M159" s="29"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
-      <c r="B160" s="64" t="s">
+      <c r="B160" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="65">
+      <c r="C160" s="53">
         <v>1</v>
       </c>
-      <c r="D160" s="66">
+      <c r="D160" s="54">
         <v>0.78</v>
       </c>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66">
+      <c r="E160" s="54"/>
+      <c r="F160" s="54">
         <v>1.8</v>
       </c>
       <c r="G160" s="40"/>
@@ -5637,7 +10029,7 @@
       <c r="K160" s="4"/>
       <c r="M160" s="29"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="B161" s="39" t="s">
         <v>36</v>
@@ -5646,21 +10038,21 @@
       <c r="D161" s="23"/>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
-      <c r="G161" s="73">
+      <c r="G161" s="61">
         <f>SUM(G153:G159)</f>
         <v>0.24798870728081582</v>
       </c>
-      <c r="H161" s="74" t="s">
+      <c r="H161" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I161" s="75"/>
-      <c r="J161" s="76">
+      <c r="I161" s="63"/>
+      <c r="J161" s="64">
         <f>G161*I161</f>
         <v>0</v>
       </c>
       <c r="K161" s="24"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="39"/>
       <c r="C162" s="8"/>
@@ -5674,7 +10066,7 @@
       <c r="K162" s="4"/>
       <c r="M162" s="29"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="20" t="s">
         <v>16</v>
@@ -5695,7 +10087,7 @@
       <c r="P163" s="32"/>
       <c r="Q163" s="32"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M164" s="29"/>
       <c r="N164" s="30"/>
       <c r="O164" s="30"/>
@@ -5715,15 +10107,15 @@
       <c r="AD164" s="29"/>
       <c r="AE164" s="29"/>
     </row>
-    <row r="165" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C165" s="58">
+      <c r="C165" s="65">
         <f>J163</f>
         <v>113426.32198961584</v>
       </c>
-      <c r="D165" s="59"/>
+      <c r="D165" s="66"/>
       <c r="E165" s="10">
         <v>100</v>
       </c>
@@ -5753,14 +10145,14 @@
       <c r="AD165" s="12"/>
       <c r="AE165" s="12"/>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B166" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C166" s="61">
+      <c r="C166" s="69">
         <v>150000</v>
       </c>
-      <c r="D166" s="62"/>
+      <c r="D166" s="70"/>
       <c r="E166" s="10"/>
       <c r="M166" s="29"/>
       <c r="N166" s="30"/>
@@ -5782,15 +10174,15 @@
       <c r="AD166" s="29"/>
       <c r="AE166" s="29"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B167" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C167" s="61">
+      <c r="C167" s="69">
         <f>C166-C169-C170</f>
         <v>142500</v>
       </c>
-      <c r="D167" s="62"/>
+      <c r="D167" s="70"/>
       <c r="E167" s="10">
         <f>C167/C165*100</f>
         <v>125.63221437528922</v>
@@ -5815,15 +10207,15 @@
       <c r="AD167" s="29"/>
       <c r="AE167" s="29"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B168" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C168" s="63">
+      <c r="C168" s="71">
         <f>C165-C167</f>
         <v>-29073.678010384159</v>
       </c>
-      <c r="D168" s="63"/>
+      <c r="D168" s="71"/>
       <c r="E168" s="10">
         <f>100-E167</f>
         <v>-25.632214375289223</v>
@@ -5848,15 +10240,15 @@
       <c r="AD168" s="29"/>
       <c r="AE168" s="29"/>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B169" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C169" s="58">
+      <c r="C169" s="65">
         <f>C166*0.03</f>
         <v>4500</v>
       </c>
-      <c r="D169" s="59"/>
+      <c r="D169" s="66"/>
       <c r="E169" s="10">
         <v>3</v>
       </c>
@@ -5880,15 +10272,15 @@
       <c r="AD169" s="29"/>
       <c r="AE169" s="29"/>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B170" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C170" s="58">
+      <c r="C170" s="65">
         <f>C166*0.02</f>
         <v>3000</v>
       </c>
-      <c r="D170" s="59"/>
+      <c r="D170" s="66"/>
       <c r="E170" s="10">
         <v>2</v>
       </c>
@@ -5922,13 +10314,13 @@
     <mergeCell ref="C166:D166"/>
     <mergeCell ref="C167:D167"/>
     <mergeCell ref="C168:D168"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
